--- a/주소록/주소록 샘플 데이터(2023-06-30).xlsx
+++ b/주소록/주소록 샘플 데이터(2023-06-30).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\callor\Documents\workspace\dbms\주소록\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{388D3225-5110-4E8A-91BF-2085CD1B14A6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B125297B-5A5F-4CBE-A95C-7C48AFBC8AA8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12060" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12060" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="주소정보" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,8 @@
     <sheet name="주소정보1정규화" sheetId="6" r:id="rId4"/>
     <sheet name="취미정보" sheetId="5" r:id="rId5"/>
     <sheet name="취미정보2정규화" sheetId="2" r:id="rId6"/>
+    <sheet name="취미정보 Relation" sheetId="8" r:id="rId7"/>
+    <sheet name="취미 Entiry" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4785" uniqueCount="986">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5885" uniqueCount="1145">
   <si>
     <t>갈한수</t>
   </si>
@@ -3004,6 +3006,486 @@
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>취미이름</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>취미코드</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>H0001</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>H0002</t>
+  </si>
+  <si>
+    <t>H0003</t>
+  </si>
+  <si>
+    <t>H0004</t>
+  </si>
+  <si>
+    <t>H0005</t>
+  </si>
+  <si>
+    <t>H0006</t>
+  </si>
+  <si>
+    <t>H0007</t>
+  </si>
+  <si>
+    <t>H0008</t>
+  </si>
+  <si>
+    <t>H0009</t>
+  </si>
+  <si>
+    <t>H0010</t>
+  </si>
+  <si>
+    <t>H0011</t>
+  </si>
+  <si>
+    <t>H0012</t>
+  </si>
+  <si>
+    <t>H0013</t>
+  </si>
+  <si>
+    <t>H0014</t>
+  </si>
+  <si>
+    <t>H0015</t>
+  </si>
+  <si>
+    <t>H0016</t>
+  </si>
+  <si>
+    <t>H0017</t>
+  </si>
+  <si>
+    <t>H0018</t>
+  </si>
+  <si>
+    <t>H0019</t>
+  </si>
+  <si>
+    <t>H0020</t>
+  </si>
+  <si>
+    <t>H0021</t>
+  </si>
+  <si>
+    <t>H0022</t>
+  </si>
+  <si>
+    <t>H0023</t>
+  </si>
+  <si>
+    <t>H0024</t>
+  </si>
+  <si>
+    <t>H0025</t>
+  </si>
+  <si>
+    <t>H0026</t>
+  </si>
+  <si>
+    <t>H0027</t>
+  </si>
+  <si>
+    <t>H0028</t>
+  </si>
+  <si>
+    <t>H0029</t>
+  </si>
+  <si>
+    <t>H0030</t>
+  </si>
+  <si>
+    <t>H0031</t>
+  </si>
+  <si>
+    <t>H0032</t>
+  </si>
+  <si>
+    <t>H0033</t>
+  </si>
+  <si>
+    <t>H0034</t>
+  </si>
+  <si>
+    <t>H0035</t>
+  </si>
+  <si>
+    <t>H0036</t>
+  </si>
+  <si>
+    <t>H0037</t>
+  </si>
+  <si>
+    <t>H0038</t>
+  </si>
+  <si>
+    <t>H0039</t>
+  </si>
+  <si>
+    <t>H0040</t>
+  </si>
+  <si>
+    <t>H0041</t>
+  </si>
+  <si>
+    <t>H0042</t>
+  </si>
+  <si>
+    <t>H0043</t>
+  </si>
+  <si>
+    <t>H0044</t>
+  </si>
+  <si>
+    <t>H0045</t>
+  </si>
+  <si>
+    <t>H0046</t>
+  </si>
+  <si>
+    <t>H0047</t>
+  </si>
+  <si>
+    <t>H0048</t>
+  </si>
+  <si>
+    <t>H0049</t>
+  </si>
+  <si>
+    <t>H0050</t>
+  </si>
+  <si>
+    <t>H0051</t>
+  </si>
+  <si>
+    <t>H0052</t>
+  </si>
+  <si>
+    <t>H0053</t>
+  </si>
+  <si>
+    <t>H0054</t>
+  </si>
+  <si>
+    <t>H0055</t>
+  </si>
+  <si>
+    <t>H0056</t>
+  </si>
+  <si>
+    <t>H0057</t>
+  </si>
+  <si>
+    <t>H0058</t>
+  </si>
+  <si>
+    <t>H0059</t>
+  </si>
+  <si>
+    <t>H0060</t>
+  </si>
+  <si>
+    <t>H0061</t>
+  </si>
+  <si>
+    <t>H0062</t>
+  </si>
+  <si>
+    <t>H0063</t>
+  </si>
+  <si>
+    <t>H0064</t>
+  </si>
+  <si>
+    <t>H0065</t>
+  </si>
+  <si>
+    <t>H0066</t>
+  </si>
+  <si>
+    <t>H0067</t>
+  </si>
+  <si>
+    <t>H0068</t>
+  </si>
+  <si>
+    <t>H0069</t>
+  </si>
+  <si>
+    <t>H0070</t>
+  </si>
+  <si>
+    <t>H0071</t>
+  </si>
+  <si>
+    <t>H0072</t>
+  </si>
+  <si>
+    <t>H0073</t>
+  </si>
+  <si>
+    <t>H0074</t>
+  </si>
+  <si>
+    <t>H0075</t>
+  </si>
+  <si>
+    <t>H0076</t>
+  </si>
+  <si>
+    <t>H0077</t>
+  </si>
+  <si>
+    <t>H0078</t>
+  </si>
+  <si>
+    <t>H0079</t>
+  </si>
+  <si>
+    <t>H0080</t>
+  </si>
+  <si>
+    <t>H0081</t>
+  </si>
+  <si>
+    <t>H0082</t>
+  </si>
+  <si>
+    <t>H0083</t>
+  </si>
+  <si>
+    <t>H0084</t>
+  </si>
+  <si>
+    <t>H0085</t>
+  </si>
+  <si>
+    <t>H0086</t>
+  </si>
+  <si>
+    <t>H0087</t>
+  </si>
+  <si>
+    <t>H0088</t>
+  </si>
+  <si>
+    <t>H0089</t>
+  </si>
+  <si>
+    <t>H0090</t>
+  </si>
+  <si>
+    <t>H0091</t>
+  </si>
+  <si>
+    <t>H0092</t>
+  </si>
+  <si>
+    <t>H0093</t>
+  </si>
+  <si>
+    <t>H0094</t>
+  </si>
+  <si>
+    <t>H0095</t>
+  </si>
+  <si>
+    <t>H0096</t>
+  </si>
+  <si>
+    <t>H0097</t>
+  </si>
+  <si>
+    <t>H0098</t>
+  </si>
+  <si>
+    <t>H0099</t>
+  </si>
+  <si>
+    <t>H0100</t>
+  </si>
+  <si>
+    <t>H0101</t>
+  </si>
+  <si>
+    <t>H0102</t>
+  </si>
+  <si>
+    <t>H0103</t>
+  </si>
+  <si>
+    <t>H0104</t>
+  </si>
+  <si>
+    <t>H0105</t>
+  </si>
+  <si>
+    <t>H0106</t>
+  </si>
+  <si>
+    <t>H0107</t>
+  </si>
+  <si>
+    <t>H0108</t>
+  </si>
+  <si>
+    <t>H0109</t>
+  </si>
+  <si>
+    <t>H0110</t>
+  </si>
+  <si>
+    <t>H0111</t>
+  </si>
+  <si>
+    <t>H0112</t>
+  </si>
+  <si>
+    <t>H0113</t>
+  </si>
+  <si>
+    <t>H0114</t>
+  </si>
+  <si>
+    <t>H0115</t>
+  </si>
+  <si>
+    <t>H0116</t>
+  </si>
+  <si>
+    <t>H0117</t>
+  </si>
+  <si>
+    <t>H0118</t>
+  </si>
+  <si>
+    <t>H0119</t>
+  </si>
+  <si>
+    <t>H0120</t>
+  </si>
+  <si>
+    <t>H0121</t>
+  </si>
+  <si>
+    <t>H0122</t>
+  </si>
+  <si>
+    <t>H0123</t>
+  </si>
+  <si>
+    <t>H0124</t>
+  </si>
+  <si>
+    <t>H0125</t>
+  </si>
+  <si>
+    <t>H0126</t>
+  </si>
+  <si>
+    <t>H0127</t>
+  </si>
+  <si>
+    <t>H0128</t>
+  </si>
+  <si>
+    <t>H0129</t>
+  </si>
+  <si>
+    <t>H0130</t>
+  </si>
+  <si>
+    <t>H0131</t>
+  </si>
+  <si>
+    <t>H0132</t>
+  </si>
+  <si>
+    <t>H0133</t>
+  </si>
+  <si>
+    <t>H0134</t>
+  </si>
+  <si>
+    <t>H0135</t>
+  </si>
+  <si>
+    <t>H0136</t>
+  </si>
+  <si>
+    <t>H0137</t>
+  </si>
+  <si>
+    <t>H0138</t>
+  </si>
+  <si>
+    <t>H0139</t>
+  </si>
+  <si>
+    <t>H0140</t>
+  </si>
+  <si>
+    <t>H0141</t>
+  </si>
+  <si>
+    <t>H0142</t>
+  </si>
+  <si>
+    <t>H0143</t>
+  </si>
+  <si>
+    <t>H0144</t>
+  </si>
+  <si>
+    <t>H0145</t>
+  </si>
+  <si>
+    <t>H0146</t>
+  </si>
+  <si>
+    <t>H0147</t>
+  </si>
+  <si>
+    <t>H0148</t>
+  </si>
+  <si>
+    <t>H0149</t>
+  </si>
+  <si>
+    <t>H0150</t>
+  </si>
+  <si>
+    <t>H0151</t>
+  </si>
+  <si>
+    <t>H0152</t>
+  </si>
+  <si>
+    <t>H0153</t>
+  </si>
+  <si>
+    <t>H0154</t>
+  </si>
+  <si>
+    <t>H0155</t>
+  </si>
+  <si>
+    <t>H0156</t>
+  </si>
+  <si>
+    <t>H0157</t>
   </si>
 </sst>
 </file>
@@ -17961,7 +18443,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82B49051-8859-473E-8CA5-E07FA620A0C3}">
   <dimension ref="A1:C391"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+    <sheetView topLeftCell="A139" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <selection activeCell="G167" sqref="G167"/>
     </sheetView>
   </sheetViews>
@@ -22278,4 +22760,7175 @@
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CBB3303-5872-4CFA-ADED-727C3A016E15}">
+  <dimension ref="A1:D391"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="F5" sqref="F4:F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.875" customWidth="1"/>
+    <col min="2" max="2" width="7.875" customWidth="1"/>
+    <col min="3" max="3" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>985</v>
+      </c>
+      <c r="B1" t="s">
+        <v>781</v>
+      </c>
+      <c r="C1" t="s">
+        <v>500</v>
+      </c>
+      <c r="D1" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>782</v>
+      </c>
+      <c r="C2" t="s">
+        <v>680</v>
+      </c>
+      <c r="D2" t="str">
+        <f>VLOOKUP(C2,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>782</v>
+      </c>
+      <c r="C3" t="s">
+        <v>602</v>
+      </c>
+      <c r="D3" t="str">
+        <f>VLOOKUP(C3,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0019</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>782</v>
+      </c>
+      <c r="C4" t="s">
+        <v>681</v>
+      </c>
+      <c r="D4" t="str">
+        <f>VLOOKUP(C4,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0157</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>784</v>
+      </c>
+      <c r="C5" t="s">
+        <v>682</v>
+      </c>
+      <c r="D5" t="str">
+        <f>VLOOKUP(C5,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0073</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>784</v>
+      </c>
+      <c r="C6" t="s">
+        <v>498</v>
+      </c>
+      <c r="D6" t="str">
+        <f>VLOOKUP(C6,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0148</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>784</v>
+      </c>
+      <c r="C7" t="s">
+        <v>683</v>
+      </c>
+      <c r="D7" t="str">
+        <f>VLOOKUP(C7,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>785</v>
+      </c>
+      <c r="C8" t="s">
+        <v>524</v>
+      </c>
+      <c r="D8" t="str">
+        <f>VLOOKUP(C8,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>785</v>
+      </c>
+      <c r="C9" t="s">
+        <v>684</v>
+      </c>
+      <c r="D9" t="str">
+        <f>VLOOKUP(C9,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0082</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>785</v>
+      </c>
+      <c r="C10" t="s">
+        <v>576</v>
+      </c>
+      <c r="D10" t="str">
+        <f>VLOOKUP(C10,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0049</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>786</v>
+      </c>
+      <c r="C11" t="s">
+        <v>504</v>
+      </c>
+      <c r="D11" t="str">
+        <f>VLOOKUP(C11,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0024</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>787</v>
+      </c>
+      <c r="C12" t="s">
+        <v>505</v>
+      </c>
+      <c r="D12" t="str">
+        <f>VLOOKUP(C12,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0091</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>788</v>
+      </c>
+      <c r="C13" t="s">
+        <v>681</v>
+      </c>
+      <c r="D13" t="str">
+        <f>VLOOKUP(C13,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0157</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>788</v>
+      </c>
+      <c r="C14" t="s">
+        <v>685</v>
+      </c>
+      <c r="D14" t="str">
+        <f>VLOOKUP(C14,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0152</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>788</v>
+      </c>
+      <c r="C15" t="s">
+        <v>686</v>
+      </c>
+      <c r="D15" t="str">
+        <f>VLOOKUP(C15,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0012</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>789</v>
+      </c>
+      <c r="C16" t="s">
+        <v>507</v>
+      </c>
+      <c r="D16" t="str">
+        <f>VLOOKUP(C16,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0118</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>790</v>
+      </c>
+      <c r="C17" t="s">
+        <v>494</v>
+      </c>
+      <c r="D17" t="str">
+        <f>VLOOKUP(C17,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0133</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>790</v>
+      </c>
+      <c r="C18" t="s">
+        <v>687</v>
+      </c>
+      <c r="D18" t="str">
+        <f>VLOOKUP(C18,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0015</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>791</v>
+      </c>
+      <c r="C19" t="s">
+        <v>689</v>
+      </c>
+      <c r="D19" t="str">
+        <f>VLOOKUP(C19,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0094</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>791</v>
+      </c>
+      <c r="C20" t="s">
+        <v>688</v>
+      </c>
+      <c r="D20" t="str">
+        <f>VLOOKUP(C20,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0079</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>792</v>
+      </c>
+      <c r="C21" t="s">
+        <v>690</v>
+      </c>
+      <c r="D21" t="str">
+        <f>VLOOKUP(C21,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0081</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>792</v>
+      </c>
+      <c r="C22" t="s">
+        <v>593</v>
+      </c>
+      <c r="D22" t="str">
+        <f>VLOOKUP(C22,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0042</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>793</v>
+      </c>
+      <c r="C23" t="s">
+        <v>691</v>
+      </c>
+      <c r="D23" t="str">
+        <f>VLOOKUP(C23,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0134</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>793</v>
+      </c>
+      <c r="C24" t="s">
+        <v>613</v>
+      </c>
+      <c r="D24" t="str">
+        <f>VLOOKUP(C24,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0018</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>793</v>
+      </c>
+      <c r="C25" t="s">
+        <v>690</v>
+      </c>
+      <c r="D25" t="str">
+        <f>VLOOKUP(C25,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0081</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>794</v>
+      </c>
+      <c r="C26" t="s">
+        <v>512</v>
+      </c>
+      <c r="D26" t="str">
+        <f>VLOOKUP(C26,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0142</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>795</v>
+      </c>
+      <c r="C27" t="s">
+        <v>513</v>
+      </c>
+      <c r="D27" t="str">
+        <f>VLOOKUP(C27,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0029</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>796</v>
+      </c>
+      <c r="C28" t="s">
+        <v>692</v>
+      </c>
+      <c r="D28" t="str">
+        <f>VLOOKUP(C28,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0112</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>796</v>
+      </c>
+      <c r="C29" t="s">
+        <v>694</v>
+      </c>
+      <c r="D29" t="str">
+        <f>VLOOKUP(C29,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0066</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>796</v>
+      </c>
+      <c r="C30" t="s">
+        <v>693</v>
+      </c>
+      <c r="D30" t="str">
+        <f>VLOOKUP(C30,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0031</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>797</v>
+      </c>
+      <c r="C31" t="s">
+        <v>695</v>
+      </c>
+      <c r="D31" t="str">
+        <f>VLOOKUP(C31,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0075</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>797</v>
+      </c>
+      <c r="C32" t="s">
+        <v>641</v>
+      </c>
+      <c r="D32" t="str">
+        <f>VLOOKUP(C32,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0086</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>798</v>
+      </c>
+      <c r="C33" t="s">
+        <v>516</v>
+      </c>
+      <c r="D33" t="str">
+        <f>VLOOKUP(C33,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0038</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>799</v>
+      </c>
+      <c r="C34" t="s">
+        <v>654</v>
+      </c>
+      <c r="D34" t="str">
+        <f>VLOOKUP(C34,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0131</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>799</v>
+      </c>
+      <c r="C35" t="s">
+        <v>499</v>
+      </c>
+      <c r="D35" t="str">
+        <f>VLOOKUP(C35,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0132</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>799</v>
+      </c>
+      <c r="C36" t="s">
+        <v>696</v>
+      </c>
+      <c r="D36" t="str">
+        <f>VLOOKUP(C36,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0044</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>800</v>
+      </c>
+      <c r="C37" t="s">
+        <v>518</v>
+      </c>
+      <c r="D37" t="str">
+        <f>VLOOKUP(C37,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0054</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>801</v>
+      </c>
+      <c r="C38" t="s">
+        <v>505</v>
+      </c>
+      <c r="D38" t="str">
+        <f>VLOOKUP(C38,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0091</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>802</v>
+      </c>
+      <c r="C39" t="s">
+        <v>697</v>
+      </c>
+      <c r="D39" t="str">
+        <f>VLOOKUP(C39,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0047</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>802</v>
+      </c>
+      <c r="C40" t="s">
+        <v>699</v>
+      </c>
+      <c r="D40" t="str">
+        <f>VLOOKUP(C40,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0067</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>802</v>
+      </c>
+      <c r="C41" t="s">
+        <v>698</v>
+      </c>
+      <c r="D41" t="str">
+        <f>VLOOKUP(C41,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0138</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>803</v>
+      </c>
+      <c r="C42" t="s">
+        <v>505</v>
+      </c>
+      <c r="D42" t="str">
+        <f>VLOOKUP(C42,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0091</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>803</v>
+      </c>
+      <c r="C43" t="s">
+        <v>700</v>
+      </c>
+      <c r="D43" t="str">
+        <f>VLOOKUP(C43,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0103</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>804</v>
+      </c>
+      <c r="C44" t="s">
+        <v>701</v>
+      </c>
+      <c r="D44" t="str">
+        <f>VLOOKUP(C44,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0048</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>804</v>
+      </c>
+      <c r="C45" t="s">
+        <v>699</v>
+      </c>
+      <c r="D45" t="str">
+        <f>VLOOKUP(C45,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0067</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>805</v>
+      </c>
+      <c r="C46" t="s">
+        <v>582</v>
+      </c>
+      <c r="D46" t="str">
+        <f>VLOOKUP(C46,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0052</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>805</v>
+      </c>
+      <c r="C47" t="s">
+        <v>513</v>
+      </c>
+      <c r="D47" t="str">
+        <f>VLOOKUP(C47,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0029</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>806</v>
+      </c>
+      <c r="C48" t="s">
+        <v>505</v>
+      </c>
+      <c r="D48" t="str">
+        <f>VLOOKUP(C48,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0091</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>807</v>
+      </c>
+      <c r="C49" t="s">
+        <v>523</v>
+      </c>
+      <c r="D49" t="str">
+        <f>VLOOKUP(C49,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0060</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>808</v>
+      </c>
+      <c r="C50" t="s">
+        <v>524</v>
+      </c>
+      <c r="D50" t="str">
+        <f>VLOOKUP(C50,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0108</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>809</v>
+      </c>
+      <c r="C51" t="s">
+        <v>702</v>
+      </c>
+      <c r="D51" t="str">
+        <f>VLOOKUP(C51,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0011</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>809</v>
+      </c>
+      <c r="C52" t="s">
+        <v>704</v>
+      </c>
+      <c r="D52" t="str">
+        <f>VLOOKUP(C52,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0022</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>809</v>
+      </c>
+      <c r="C53" t="s">
+        <v>703</v>
+      </c>
+      <c r="D53" t="str">
+        <f>VLOOKUP(C53,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0137</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>810</v>
+      </c>
+      <c r="C54" t="s">
+        <v>705</v>
+      </c>
+      <c r="D54" t="str">
+        <f>VLOOKUP(C54,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0126</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>810</v>
+      </c>
+      <c r="C55" t="s">
+        <v>569</v>
+      </c>
+      <c r="D55" t="str">
+        <f>VLOOKUP(C55,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0145</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>811</v>
+      </c>
+      <c r="C56" t="s">
+        <v>523</v>
+      </c>
+      <c r="D56" t="str">
+        <f>VLOOKUP(C56,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0060</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>811</v>
+      </c>
+      <c r="C57" t="s">
+        <v>707</v>
+      </c>
+      <c r="D57" t="str">
+        <f>VLOOKUP(C57,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0040</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>811</v>
+      </c>
+      <c r="C58" t="s">
+        <v>706</v>
+      </c>
+      <c r="D58" t="str">
+        <f>VLOOKUP(C58,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0057</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>812</v>
+      </c>
+      <c r="C59" t="s">
+        <v>619</v>
+      </c>
+      <c r="D59" t="str">
+        <f>VLOOKUP(C59,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0124</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>812</v>
+      </c>
+      <c r="C60" t="s">
+        <v>690</v>
+      </c>
+      <c r="D60" t="str">
+        <f>VLOOKUP(C60,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0081</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>812</v>
+      </c>
+      <c r="C61" t="s">
+        <v>497</v>
+      </c>
+      <c r="D61" t="str">
+        <f>VLOOKUP(C61,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0036</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>813</v>
+      </c>
+      <c r="C62" t="s">
+        <v>529</v>
+      </c>
+      <c r="D62" t="str">
+        <f>VLOOKUP(C62,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0025</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>814</v>
+      </c>
+      <c r="C63" t="s">
+        <v>708</v>
+      </c>
+      <c r="D63" t="str">
+        <f>VLOOKUP(C63,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0026</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>814</v>
+      </c>
+      <c r="C64" t="s">
+        <v>669</v>
+      </c>
+      <c r="D64" t="str">
+        <f>VLOOKUP(C64,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0130</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>814</v>
+      </c>
+      <c r="C65" t="s">
+        <v>690</v>
+      </c>
+      <c r="D65" t="str">
+        <f>VLOOKUP(C65,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0081</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>815</v>
+      </c>
+      <c r="C66" t="s">
+        <v>494</v>
+      </c>
+      <c r="D66" t="str">
+        <f>VLOOKUP(C66,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0133</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>815</v>
+      </c>
+      <c r="C67" t="s">
+        <v>683</v>
+      </c>
+      <c r="D67" t="str">
+        <f>VLOOKUP(C67,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0117</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>816</v>
+      </c>
+      <c r="C68" t="s">
+        <v>532</v>
+      </c>
+      <c r="D68" t="str">
+        <f>VLOOKUP(C68,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0037</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>817</v>
+      </c>
+      <c r="C69" t="s">
+        <v>495</v>
+      </c>
+      <c r="D69" t="str">
+        <f>VLOOKUP(C69,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0078</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>818</v>
+      </c>
+      <c r="C70" t="s">
+        <v>533</v>
+      </c>
+      <c r="D70" t="str">
+        <f>VLOOKUP(C70,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0155</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>819</v>
+      </c>
+      <c r="C71" t="s">
+        <v>534</v>
+      </c>
+      <c r="D71" t="str">
+        <f>VLOOKUP(C71,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0120</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>820</v>
+      </c>
+      <c r="C72" t="s">
+        <v>690</v>
+      </c>
+      <c r="D72" t="str">
+        <f>VLOOKUP(C72,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0081</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>820</v>
+      </c>
+      <c r="C73" t="s">
+        <v>684</v>
+      </c>
+      <c r="D73" t="str">
+        <f>VLOOKUP(C73,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0082</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>820</v>
+      </c>
+      <c r="C74" t="s">
+        <v>492</v>
+      </c>
+      <c r="D74" t="str">
+        <f>VLOOKUP(C74,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0095</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>821</v>
+      </c>
+      <c r="C75" t="s">
+        <v>709</v>
+      </c>
+      <c r="D75" t="str">
+        <f>VLOOKUP(C75,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0089</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>821</v>
+      </c>
+      <c r="C76" t="s">
+        <v>575</v>
+      </c>
+      <c r="D76" t="str">
+        <f>VLOOKUP(C76,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0027</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>821</v>
+      </c>
+      <c r="C77" t="s">
+        <v>513</v>
+      </c>
+      <c r="D77" t="str">
+        <f>VLOOKUP(C77,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0029</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>822</v>
+      </c>
+      <c r="C78" t="s">
+        <v>537</v>
+      </c>
+      <c r="D78" t="str">
+        <f>VLOOKUP(C78,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0003</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>823</v>
+      </c>
+      <c r="C79" t="s">
+        <v>492</v>
+      </c>
+      <c r="D79" t="str">
+        <f>VLOOKUP(C79,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0095</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>823</v>
+      </c>
+      <c r="C80" t="s">
+        <v>494</v>
+      </c>
+      <c r="D80" t="str">
+        <f>VLOOKUP(C80,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0133</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>823</v>
+      </c>
+      <c r="C81" t="s">
+        <v>684</v>
+      </c>
+      <c r="D81" t="str">
+        <f>VLOOKUP(C81,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0082</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>824</v>
+      </c>
+      <c r="C82" t="s">
+        <v>710</v>
+      </c>
+      <c r="D82" t="str">
+        <f>VLOOKUP(C82,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0096</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>824</v>
+      </c>
+      <c r="C83" t="s">
+        <v>695</v>
+      </c>
+      <c r="D83" t="str">
+        <f>VLOOKUP(C83,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0075</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>824</v>
+      </c>
+      <c r="C84" t="s">
+        <v>664</v>
+      </c>
+      <c r="D84" t="str">
+        <f>VLOOKUP(C84,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0051</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>825</v>
+      </c>
+      <c r="C85" t="s">
+        <v>540</v>
+      </c>
+      <c r="D85" t="str">
+        <f>VLOOKUP(C85,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0085</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>826</v>
+      </c>
+      <c r="C86" t="s">
+        <v>711</v>
+      </c>
+      <c r="D86" t="str">
+        <f>VLOOKUP(C86,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0009</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>826</v>
+      </c>
+      <c r="C87" t="s">
+        <v>699</v>
+      </c>
+      <c r="D87" t="str">
+        <f>VLOOKUP(C87,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0067</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>827</v>
+      </c>
+      <c r="C88" t="s">
+        <v>713</v>
+      </c>
+      <c r="D88" t="str">
+        <f>VLOOKUP(C88,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0151</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>827</v>
+      </c>
+      <c r="C89" t="s">
+        <v>712</v>
+      </c>
+      <c r="D89" t="str">
+        <f>VLOOKUP(C89,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0144</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>827</v>
+      </c>
+      <c r="C90" t="s">
+        <v>697</v>
+      </c>
+      <c r="D90" t="str">
+        <f>VLOOKUP(C90,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0047</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>828</v>
+      </c>
+      <c r="C91" t="s">
+        <v>716</v>
+      </c>
+      <c r="D91" t="str">
+        <f>VLOOKUP(C91,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0129</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>828</v>
+      </c>
+      <c r="C92" t="s">
+        <v>715</v>
+      </c>
+      <c r="D92" t="str">
+        <f>VLOOKUP(C92,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0008</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>828</v>
+      </c>
+      <c r="C93" t="s">
+        <v>714</v>
+      </c>
+      <c r="D93" t="str">
+        <f>VLOOKUP(C93,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0140</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>829</v>
+      </c>
+      <c r="C94" t="s">
+        <v>717</v>
+      </c>
+      <c r="D94" t="str">
+        <f>VLOOKUP(C94,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0050</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>829</v>
+      </c>
+      <c r="C95" t="s">
+        <v>684</v>
+      </c>
+      <c r="D95" t="str">
+        <f>VLOOKUP(C95,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0082</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>830</v>
+      </c>
+      <c r="C96" t="s">
+        <v>545</v>
+      </c>
+      <c r="D96" t="str">
+        <f>VLOOKUP(C96,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0069</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>831</v>
+      </c>
+      <c r="C97" t="s">
+        <v>718</v>
+      </c>
+      <c r="D97" t="str">
+        <f>VLOOKUP(C97,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0063</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>831</v>
+      </c>
+      <c r="C98" t="s">
+        <v>516</v>
+      </c>
+      <c r="D98" t="str">
+        <f>VLOOKUP(C98,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0038</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>832</v>
+      </c>
+      <c r="C99" t="s">
+        <v>689</v>
+      </c>
+      <c r="D99" t="str">
+        <f>VLOOKUP(C99,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0094</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>832</v>
+      </c>
+      <c r="C100" t="s">
+        <v>693</v>
+      </c>
+      <c r="D100" t="str">
+        <f>VLOOKUP(C100,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0031</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>832</v>
+      </c>
+      <c r="C101" t="s">
+        <v>719</v>
+      </c>
+      <c r="D101" t="str">
+        <f>VLOOKUP(C101,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0006</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>833</v>
+      </c>
+      <c r="C102" t="s">
+        <v>548</v>
+      </c>
+      <c r="D102" t="str">
+        <f>VLOOKUP(C102,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0056</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>834</v>
+      </c>
+      <c r="C103" t="s">
+        <v>717</v>
+      </c>
+      <c r="D103" t="str">
+        <f>VLOOKUP(C103,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0050</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>834</v>
+      </c>
+      <c r="C104" t="s">
+        <v>567</v>
+      </c>
+      <c r="D104" t="str">
+        <f>VLOOKUP(C104,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0061</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>835</v>
+      </c>
+      <c r="C105" t="s">
+        <v>550</v>
+      </c>
+      <c r="D105" t="str">
+        <f>VLOOKUP(C105,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0114</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>836</v>
+      </c>
+      <c r="C106" t="s">
+        <v>720</v>
+      </c>
+      <c r="D106" t="str">
+        <f>VLOOKUP(C106,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0146</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>836</v>
+      </c>
+      <c r="C107" t="s">
+        <v>712</v>
+      </c>
+      <c r="D107" t="str">
+        <f>VLOOKUP(C107,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0144</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>837</v>
+      </c>
+      <c r="C108" t="s">
+        <v>552</v>
+      </c>
+      <c r="D108" t="str">
+        <f>VLOOKUP(C108,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0030</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>838</v>
+      </c>
+      <c r="C109" t="s">
+        <v>496</v>
+      </c>
+      <c r="D109" t="str">
+        <f>VLOOKUP(C109,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0115</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>838</v>
+      </c>
+      <c r="C110" t="s">
+        <v>495</v>
+      </c>
+      <c r="D110" t="str">
+        <f>VLOOKUP(C110,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0078</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>839</v>
+      </c>
+      <c r="C111" t="s">
+        <v>554</v>
+      </c>
+      <c r="D111" t="str">
+        <f>VLOOKUP(C111,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0017</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112" t="s">
+        <v>840</v>
+      </c>
+      <c r="C112" t="s">
+        <v>505</v>
+      </c>
+      <c r="D112" t="str">
+        <f>VLOOKUP(C112,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0091</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>840</v>
+      </c>
+      <c r="C113" t="s">
+        <v>721</v>
+      </c>
+      <c r="D113" t="str">
+        <f>VLOOKUP(C113,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0111</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
+        <v>841</v>
+      </c>
+      <c r="C114" t="s">
+        <v>715</v>
+      </c>
+      <c r="D114" t="str">
+        <f>VLOOKUP(C114,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0008</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115" t="s">
+        <v>841</v>
+      </c>
+      <c r="C115" t="s">
+        <v>722</v>
+      </c>
+      <c r="D115" t="str">
+        <f>VLOOKUP(C115,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0004</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116" t="s">
+        <v>842</v>
+      </c>
+      <c r="C116" t="s">
+        <v>723</v>
+      </c>
+      <c r="D116" t="str">
+        <f>VLOOKUP(C116,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0149</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117" t="s">
+        <v>842</v>
+      </c>
+      <c r="C117" t="s">
+        <v>548</v>
+      </c>
+      <c r="D117" t="str">
+        <f>VLOOKUP(C117,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0056</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118" t="s">
+        <v>843</v>
+      </c>
+      <c r="C118" t="s">
+        <v>724</v>
+      </c>
+      <c r="D118" t="str">
+        <f>VLOOKUP(C118,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0106</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
+        <v>843</v>
+      </c>
+      <c r="C119" t="s">
+        <v>512</v>
+      </c>
+      <c r="D119" t="str">
+        <f>VLOOKUP(C119,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0142</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
+        <v>843</v>
+      </c>
+      <c r="C120" t="s">
+        <v>713</v>
+      </c>
+      <c r="D120" t="str">
+        <f>VLOOKUP(C120,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0151</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121" t="s">
+        <v>844</v>
+      </c>
+      <c r="C121" t="s">
+        <v>593</v>
+      </c>
+      <c r="D121" t="str">
+        <f>VLOOKUP(C121,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0042</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122" t="s">
+        <v>844</v>
+      </c>
+      <c r="C122" t="s">
+        <v>593</v>
+      </c>
+      <c r="D122" t="str">
+        <f>VLOOKUP(C122,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0042</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123" t="s">
+        <v>844</v>
+      </c>
+      <c r="C123" t="s">
+        <v>725</v>
+      </c>
+      <c r="D123" t="str">
+        <f>VLOOKUP(C123,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0076</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124" t="s">
+        <v>845</v>
+      </c>
+      <c r="C124" t="s">
+        <v>726</v>
+      </c>
+      <c r="D124" t="str">
+        <f>VLOOKUP(C124,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0016</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125" t="s">
+        <v>845</v>
+      </c>
+      <c r="C125" t="s">
+        <v>649</v>
+      </c>
+      <c r="D125" t="str">
+        <f>VLOOKUP(C125,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0092</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126" t="s">
+        <v>846</v>
+      </c>
+      <c r="C126" t="s">
+        <v>673</v>
+      </c>
+      <c r="D126" t="str">
+        <f>VLOOKUP(C126,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0100</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127" t="s">
+        <v>846</v>
+      </c>
+      <c r="C127" t="s">
+        <v>727</v>
+      </c>
+      <c r="D127" t="str">
+        <f>VLOOKUP(C127,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0043</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128" t="s">
+        <v>847</v>
+      </c>
+      <c r="C128" t="s">
+        <v>729</v>
+      </c>
+      <c r="D128" t="str">
+        <f>VLOOKUP(C128,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0104</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129" t="s">
+        <v>847</v>
+      </c>
+      <c r="C129" t="s">
+        <v>728</v>
+      </c>
+      <c r="D129" t="str">
+        <f>VLOOKUP(C129,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0053</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130" t="s">
+        <v>848</v>
+      </c>
+      <c r="C130" t="s">
+        <v>697</v>
+      </c>
+      <c r="D130" t="str">
+        <f>VLOOKUP(C130,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0047</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131" t="s">
+        <v>848</v>
+      </c>
+      <c r="C131" t="s">
+        <v>680</v>
+      </c>
+      <c r="D131" t="str">
+        <f>VLOOKUP(C131,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0121</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132" t="s">
+        <v>849</v>
+      </c>
+      <c r="C132" t="s">
+        <v>505</v>
+      </c>
+      <c r="D132" t="str">
+        <f>VLOOKUP(C132,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0091</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133" t="s">
+        <v>850</v>
+      </c>
+      <c r="C133" t="s">
+        <v>730</v>
+      </c>
+      <c r="D133" t="str">
+        <f>VLOOKUP(C133,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0127</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134" t="s">
+        <v>850</v>
+      </c>
+      <c r="C134" t="s">
+        <v>731</v>
+      </c>
+      <c r="D134" t="str">
+        <f>VLOOKUP(C134,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0072</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135" t="s">
+        <v>851</v>
+      </c>
+      <c r="C135" t="s">
+        <v>732</v>
+      </c>
+      <c r="D135" t="str">
+        <f>VLOOKUP(C135,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0098</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136" t="s">
+        <v>851</v>
+      </c>
+      <c r="C136" t="s">
+        <v>706</v>
+      </c>
+      <c r="D136" t="str">
+        <f>VLOOKUP(C136,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0057</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137" t="s">
+        <v>851</v>
+      </c>
+      <c r="C137" t="s">
+        <v>716</v>
+      </c>
+      <c r="D137" t="str">
+        <f>VLOOKUP(C137,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0129</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138" t="s">
+        <v>852</v>
+      </c>
+      <c r="C138" t="s">
+        <v>552</v>
+      </c>
+      <c r="D138" t="str">
+        <f>VLOOKUP(C138,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0030</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139" t="s">
+        <v>852</v>
+      </c>
+      <c r="C139" t="s">
+        <v>733</v>
+      </c>
+      <c r="D139" t="str">
+        <f>VLOOKUP(C139,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0021</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140" t="s">
+        <v>853</v>
+      </c>
+      <c r="C140" t="s">
+        <v>567</v>
+      </c>
+      <c r="D140" t="str">
+        <f>VLOOKUP(C140,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0061</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141" t="s">
+        <v>854</v>
+      </c>
+      <c r="C141" t="s">
+        <v>496</v>
+      </c>
+      <c r="D141" t="str">
+        <f>VLOOKUP(C141,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0115</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142" t="s">
+        <v>855</v>
+      </c>
+      <c r="C142" t="s">
+        <v>665</v>
+      </c>
+      <c r="D142" t="str">
+        <f>VLOOKUP(C142,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0083</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143" t="s">
+        <v>855</v>
+      </c>
+      <c r="C143" t="s">
+        <v>693</v>
+      </c>
+      <c r="D143" t="str">
+        <f>VLOOKUP(C143,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0031</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="B144" t="s">
+        <v>855</v>
+      </c>
+      <c r="C144" t="s">
+        <v>734</v>
+      </c>
+      <c r="D144" t="str">
+        <f>VLOOKUP(C144,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0065</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="B145" t="s">
+        <v>856</v>
+      </c>
+      <c r="C145" t="s">
+        <v>499</v>
+      </c>
+      <c r="D145" t="str">
+        <f>VLOOKUP(C145,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0132</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>145</v>
+      </c>
+      <c r="B146" t="s">
+        <v>857</v>
+      </c>
+      <c r="C146" t="s">
+        <v>569</v>
+      </c>
+      <c r="D146" t="str">
+        <f>VLOOKUP(C146,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0145</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="B147" t="s">
+        <v>858</v>
+      </c>
+      <c r="C147" t="s">
+        <v>736</v>
+      </c>
+      <c r="D147" t="str">
+        <f>VLOOKUP(C147,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0007</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="B148" t="s">
+        <v>858</v>
+      </c>
+      <c r="C148" t="s">
+        <v>735</v>
+      </c>
+      <c r="D148" t="str">
+        <f>VLOOKUP(C148,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0013</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>148</v>
+      </c>
+      <c r="B149" t="s">
+        <v>858</v>
+      </c>
+      <c r="C149" t="s">
+        <v>524</v>
+      </c>
+      <c r="D149" t="str">
+        <f>VLOOKUP(C149,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0108</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>149</v>
+      </c>
+      <c r="B150" t="s">
+        <v>859</v>
+      </c>
+      <c r="C150" t="s">
+        <v>737</v>
+      </c>
+      <c r="D150" t="str">
+        <f>VLOOKUP(C150,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0034</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>150</v>
+      </c>
+      <c r="B151" t="s">
+        <v>859</v>
+      </c>
+      <c r="C151" t="s">
+        <v>688</v>
+      </c>
+      <c r="D151" t="str">
+        <f>VLOOKUP(C151,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0079</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>151</v>
+      </c>
+      <c r="B152" t="s">
+        <v>859</v>
+      </c>
+      <c r="C152" t="s">
+        <v>673</v>
+      </c>
+      <c r="D152" t="str">
+        <f>VLOOKUP(C152,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0100</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>152</v>
+      </c>
+      <c r="B153" t="s">
+        <v>860</v>
+      </c>
+      <c r="C153" t="s">
+        <v>545</v>
+      </c>
+      <c r="D153" t="str">
+        <f>VLOOKUP(C153,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0069</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>153</v>
+      </c>
+      <c r="B154" t="s">
+        <v>860</v>
+      </c>
+      <c r="C154" t="s">
+        <v>738</v>
+      </c>
+      <c r="D154" t="str">
+        <f>VLOOKUP(C154,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0028</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>154</v>
+      </c>
+      <c r="B155" t="s">
+        <v>860</v>
+      </c>
+      <c r="C155" t="s">
+        <v>727</v>
+      </c>
+      <c r="D155" t="str">
+        <f>VLOOKUP(C155,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0043</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>155</v>
+      </c>
+      <c r="B156" t="s">
+        <v>861</v>
+      </c>
+      <c r="C156" t="s">
+        <v>706</v>
+      </c>
+      <c r="D156" t="str">
+        <f>VLOOKUP(C156,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0057</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>156</v>
+      </c>
+      <c r="B157" t="s">
+        <v>861</v>
+      </c>
+      <c r="C157" t="s">
+        <v>496</v>
+      </c>
+      <c r="D157" t="str">
+        <f>VLOOKUP(C157,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0115</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>157</v>
+      </c>
+      <c r="B158" t="s">
+        <v>861</v>
+      </c>
+      <c r="C158" t="s">
+        <v>739</v>
+      </c>
+      <c r="D158" t="str">
+        <f>VLOOKUP(C158,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0143</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>158</v>
+      </c>
+      <c r="B159" t="s">
+        <v>862</v>
+      </c>
+      <c r="C159" t="s">
+        <v>574</v>
+      </c>
+      <c r="D159" t="str">
+        <f>VLOOKUP(C159,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0141</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>159</v>
+      </c>
+      <c r="B160" t="s">
+        <v>863</v>
+      </c>
+      <c r="C160" t="s">
+        <v>575</v>
+      </c>
+      <c r="D160" t="str">
+        <f>VLOOKUP(C160,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0027</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>160</v>
+      </c>
+      <c r="B161" t="s">
+        <v>864</v>
+      </c>
+      <c r="C161" t="s">
+        <v>576</v>
+      </c>
+      <c r="D161" t="str">
+        <f>VLOOKUP(C161,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0049</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>161</v>
+      </c>
+      <c r="B162" t="s">
+        <v>865</v>
+      </c>
+      <c r="C162" t="s">
+        <v>577</v>
+      </c>
+      <c r="D162" t="str">
+        <f>VLOOKUP(C162,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0032</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>162</v>
+      </c>
+      <c r="B163" t="s">
+        <v>866</v>
+      </c>
+      <c r="C163" t="s">
+        <v>724</v>
+      </c>
+      <c r="D163" t="str">
+        <f>VLOOKUP(C163,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0106</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>163</v>
+      </c>
+      <c r="B164" t="s">
+        <v>866</v>
+      </c>
+      <c r="C164" t="s">
+        <v>740</v>
+      </c>
+      <c r="D164" t="str">
+        <f>VLOOKUP(C164,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0002</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>164</v>
+      </c>
+      <c r="B165" t="s">
+        <v>866</v>
+      </c>
+      <c r="C165" t="s">
+        <v>577</v>
+      </c>
+      <c r="D165" t="str">
+        <f>VLOOKUP(C165,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0032</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>165</v>
+      </c>
+      <c r="B166" t="s">
+        <v>867</v>
+      </c>
+      <c r="C166" t="s">
+        <v>727</v>
+      </c>
+      <c r="D166" t="str">
+        <f>VLOOKUP(C166,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0043</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>166</v>
+      </c>
+      <c r="B167" t="s">
+        <v>867</v>
+      </c>
+      <c r="C167" t="s">
+        <v>737</v>
+      </c>
+      <c r="D167" t="str">
+        <f>VLOOKUP(C167,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0034</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>167</v>
+      </c>
+      <c r="B168" t="s">
+        <v>868</v>
+      </c>
+      <c r="C168" t="s">
+        <v>582</v>
+      </c>
+      <c r="D168" t="str">
+        <f>VLOOKUP(C168,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0052</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>168</v>
+      </c>
+      <c r="B169" t="s">
+        <v>868</v>
+      </c>
+      <c r="C169" t="s">
+        <v>532</v>
+      </c>
+      <c r="D169" t="str">
+        <f>VLOOKUP(C169,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0037</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>169</v>
+      </c>
+      <c r="B170" t="s">
+        <v>869</v>
+      </c>
+      <c r="C170" t="s">
+        <v>741</v>
+      </c>
+      <c r="D170" t="str">
+        <f>VLOOKUP(C170,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0135</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>170</v>
+      </c>
+      <c r="B171" t="s">
+        <v>869</v>
+      </c>
+      <c r="C171" t="s">
+        <v>706</v>
+      </c>
+      <c r="D171" t="str">
+        <f>VLOOKUP(C171,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0057</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>171</v>
+      </c>
+      <c r="B172" t="s">
+        <v>870</v>
+      </c>
+      <c r="C172" t="s">
+        <v>582</v>
+      </c>
+      <c r="D172" t="str">
+        <f>VLOOKUP(C172,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0052</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>172</v>
+      </c>
+      <c r="B173" t="s">
+        <v>871</v>
+      </c>
+      <c r="C173" t="s">
+        <v>534</v>
+      </c>
+      <c r="D173" t="str">
+        <f>VLOOKUP(C173,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0120</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>173</v>
+      </c>
+      <c r="B174" t="s">
+        <v>872</v>
+      </c>
+      <c r="C174" t="s">
+        <v>494</v>
+      </c>
+      <c r="D174" t="str">
+        <f>VLOOKUP(C174,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0133</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>174</v>
+      </c>
+      <c r="B175" t="s">
+        <v>873</v>
+      </c>
+      <c r="C175" t="s">
+        <v>583</v>
+      </c>
+      <c r="D175" t="str">
+        <f>VLOOKUP(C175,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0107</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>175</v>
+      </c>
+      <c r="B176" t="s">
+        <v>874</v>
+      </c>
+      <c r="C176" t="s">
+        <v>714</v>
+      </c>
+      <c r="D176" t="str">
+        <f>VLOOKUP(C176,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0140</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>176</v>
+      </c>
+      <c r="B177" t="s">
+        <v>874</v>
+      </c>
+      <c r="C177" t="s">
+        <v>698</v>
+      </c>
+      <c r="D177" t="str">
+        <f>VLOOKUP(C177,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0138</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>177</v>
+      </c>
+      <c r="B178" t="s">
+        <v>874</v>
+      </c>
+      <c r="C178" t="s">
+        <v>673</v>
+      </c>
+      <c r="D178" t="str">
+        <f>VLOOKUP(C178,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0100</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>178</v>
+      </c>
+      <c r="B179" t="s">
+        <v>875</v>
+      </c>
+      <c r="C179" t="s">
+        <v>585</v>
+      </c>
+      <c r="D179" t="str">
+        <f>VLOOKUP(C179,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0070</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>179</v>
+      </c>
+      <c r="B180" t="s">
+        <v>876</v>
+      </c>
+      <c r="C180" t="s">
+        <v>710</v>
+      </c>
+      <c r="D180" t="str">
+        <f>VLOOKUP(C180,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0096</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>180</v>
+      </c>
+      <c r="B181" t="s">
+        <v>876</v>
+      </c>
+      <c r="C181" t="s">
+        <v>742</v>
+      </c>
+      <c r="D181" t="str">
+        <f>VLOOKUP(C181,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0119</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <v>181</v>
+      </c>
+      <c r="B182" t="s">
+        <v>877</v>
+      </c>
+      <c r="C182" t="s">
+        <v>587</v>
+      </c>
+      <c r="D182" t="str">
+        <f>VLOOKUP(C182,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0055</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <v>182</v>
+      </c>
+      <c r="B183" t="s">
+        <v>878</v>
+      </c>
+      <c r="C183" t="s">
+        <v>736</v>
+      </c>
+      <c r="D183" t="str">
+        <f>VLOOKUP(C183,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0007</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <v>183</v>
+      </c>
+      <c r="B184" t="s">
+        <v>878</v>
+      </c>
+      <c r="C184" t="s">
+        <v>743</v>
+      </c>
+      <c r="D184" t="str">
+        <f>VLOOKUP(C184,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0093</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <v>184</v>
+      </c>
+      <c r="B185" t="s">
+        <v>879</v>
+      </c>
+      <c r="C185" t="s">
+        <v>744</v>
+      </c>
+      <c r="D185" t="str">
+        <f>VLOOKUP(C185,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0147</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <v>185</v>
+      </c>
+      <c r="B186" t="s">
+        <v>879</v>
+      </c>
+      <c r="C186" t="s">
+        <v>688</v>
+      </c>
+      <c r="D186" t="str">
+        <f>VLOOKUP(C186,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0079</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <v>186</v>
+      </c>
+      <c r="B187" t="s">
+        <v>880</v>
+      </c>
+      <c r="C187" t="s">
+        <v>745</v>
+      </c>
+      <c r="D187" t="str">
+        <f>VLOOKUP(C187,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0058</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <v>187</v>
+      </c>
+      <c r="B188" t="s">
+        <v>880</v>
+      </c>
+      <c r="C188" t="s">
+        <v>583</v>
+      </c>
+      <c r="D188" t="str">
+        <f>VLOOKUP(C188,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0107</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <v>188</v>
+      </c>
+      <c r="B189" t="s">
+        <v>881</v>
+      </c>
+      <c r="C189" t="s">
+        <v>665</v>
+      </c>
+      <c r="D189" t="str">
+        <f>VLOOKUP(C189,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0083</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A190">
+        <v>189</v>
+      </c>
+      <c r="B190" t="s">
+        <v>881</v>
+      </c>
+      <c r="C190" t="s">
+        <v>709</v>
+      </c>
+      <c r="D190" t="str">
+        <f>VLOOKUP(C190,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0089</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A191">
+        <v>190</v>
+      </c>
+      <c r="B191" t="s">
+        <v>882</v>
+      </c>
+      <c r="C191" t="s">
+        <v>492</v>
+      </c>
+      <c r="D191" t="str">
+        <f>VLOOKUP(C191,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0095</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A192">
+        <v>191</v>
+      </c>
+      <c r="B192" t="s">
+        <v>883</v>
+      </c>
+      <c r="C192" t="s">
+        <v>592</v>
+      </c>
+      <c r="D192" t="str">
+        <f>VLOOKUP(C192,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0077</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A193">
+        <v>192</v>
+      </c>
+      <c r="B193" t="s">
+        <v>884</v>
+      </c>
+      <c r="C193" t="s">
+        <v>593</v>
+      </c>
+      <c r="D193" t="str">
+        <f>VLOOKUP(C193,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0042</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A194">
+        <v>193</v>
+      </c>
+      <c r="B194" t="s">
+        <v>885</v>
+      </c>
+      <c r="C194" t="s">
+        <v>600</v>
+      </c>
+      <c r="D194" t="str">
+        <f>VLOOKUP(C194,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0099</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A195">
+        <v>194</v>
+      </c>
+      <c r="B195" t="s">
+        <v>885</v>
+      </c>
+      <c r="C195" t="s">
+        <v>746</v>
+      </c>
+      <c r="D195" t="str">
+        <f>VLOOKUP(C195,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0059</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A196">
+        <v>195</v>
+      </c>
+      <c r="B196" t="s">
+        <v>885</v>
+      </c>
+      <c r="C196" t="s">
+        <v>680</v>
+      </c>
+      <c r="D196" t="str">
+        <f>VLOOKUP(C196,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0121</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A197">
+        <v>196</v>
+      </c>
+      <c r="B197" t="s">
+        <v>886</v>
+      </c>
+      <c r="C197" t="s">
+        <v>631</v>
+      </c>
+      <c r="D197" t="str">
+        <f>VLOOKUP(C197,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0097</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A198">
+        <v>197</v>
+      </c>
+      <c r="B198" t="s">
+        <v>886</v>
+      </c>
+      <c r="C198" t="s">
+        <v>694</v>
+      </c>
+      <c r="D198" t="str">
+        <f>VLOOKUP(C198,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0066</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A199">
+        <v>198</v>
+      </c>
+      <c r="B199" t="s">
+        <v>886</v>
+      </c>
+      <c r="C199" t="s">
+        <v>492</v>
+      </c>
+      <c r="D199" t="str">
+        <f>VLOOKUP(C199,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0095</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A200">
+        <v>199</v>
+      </c>
+      <c r="B200" t="s">
+        <v>887</v>
+      </c>
+      <c r="C200" t="s">
+        <v>747</v>
+      </c>
+      <c r="D200" t="str">
+        <f>VLOOKUP(C200,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0090</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A201">
+        <v>200</v>
+      </c>
+      <c r="B201" t="s">
+        <v>887</v>
+      </c>
+      <c r="C201" t="s">
+        <v>574</v>
+      </c>
+      <c r="D201" t="str">
+        <f>VLOOKUP(C201,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0141</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A202">
+        <v>201</v>
+      </c>
+      <c r="B202" t="s">
+        <v>887</v>
+      </c>
+      <c r="C202" t="s">
+        <v>716</v>
+      </c>
+      <c r="D202" t="str">
+        <f>VLOOKUP(C202,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0129</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A203">
+        <v>202</v>
+      </c>
+      <c r="B203" t="s">
+        <v>888</v>
+      </c>
+      <c r="C203" t="s">
+        <v>516</v>
+      </c>
+      <c r="D203" t="str">
+        <f>VLOOKUP(C203,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0038</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A204">
+        <v>203</v>
+      </c>
+      <c r="B204" t="s">
+        <v>888</v>
+      </c>
+      <c r="C204" t="s">
+        <v>748</v>
+      </c>
+      <c r="D204" t="str">
+        <f>VLOOKUP(C204,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0101</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A205">
+        <v>204</v>
+      </c>
+      <c r="B205" t="s">
+        <v>888</v>
+      </c>
+      <c r="C205" t="s">
+        <v>703</v>
+      </c>
+      <c r="D205" t="str">
+        <f>VLOOKUP(C205,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0137</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A206">
+        <v>205</v>
+      </c>
+      <c r="B206" t="s">
+        <v>889</v>
+      </c>
+      <c r="C206" t="s">
+        <v>701</v>
+      </c>
+      <c r="D206" t="str">
+        <f>VLOOKUP(C206,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0048</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A207">
+        <v>206</v>
+      </c>
+      <c r="B207" t="s">
+        <v>889</v>
+      </c>
+      <c r="C207" t="s">
+        <v>550</v>
+      </c>
+      <c r="D207" t="str">
+        <f>VLOOKUP(C207,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0114</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A208">
+        <v>207</v>
+      </c>
+      <c r="B208" t="s">
+        <v>889</v>
+      </c>
+      <c r="C208" t="s">
+        <v>749</v>
+      </c>
+      <c r="D208" t="str">
+        <f>VLOOKUP(C208,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0064</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A209">
+        <v>208</v>
+      </c>
+      <c r="B209" t="s">
+        <v>890</v>
+      </c>
+      <c r="C209" t="s">
+        <v>497</v>
+      </c>
+      <c r="D209" t="str">
+        <f>VLOOKUP(C209,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0036</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A210">
+        <v>209</v>
+      </c>
+      <c r="B210" t="s">
+        <v>891</v>
+      </c>
+      <c r="C210" t="s">
+        <v>714</v>
+      </c>
+      <c r="D210" t="str">
+        <f>VLOOKUP(C210,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0140</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A211">
+        <v>210</v>
+      </c>
+      <c r="B211" t="s">
+        <v>891</v>
+      </c>
+      <c r="C211" t="s">
+        <v>548</v>
+      </c>
+      <c r="D211" t="str">
+        <f>VLOOKUP(C211,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0056</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A212">
+        <v>211</v>
+      </c>
+      <c r="B212" t="s">
+        <v>892</v>
+      </c>
+      <c r="C212" t="s">
+        <v>600</v>
+      </c>
+      <c r="D212" t="str">
+        <f>VLOOKUP(C212,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0099</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A213">
+        <v>212</v>
+      </c>
+      <c r="B213" t="s">
+        <v>893</v>
+      </c>
+      <c r="C213" t="s">
+        <v>750</v>
+      </c>
+      <c r="D213" t="str">
+        <f>VLOOKUP(C213,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0010</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A214">
+        <v>213</v>
+      </c>
+      <c r="B214" t="s">
+        <v>893</v>
+      </c>
+      <c r="C214" t="s">
+        <v>713</v>
+      </c>
+      <c r="D214" t="str">
+        <f>VLOOKUP(C214,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0151</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A215">
+        <v>214</v>
+      </c>
+      <c r="B215" t="s">
+        <v>894</v>
+      </c>
+      <c r="C215" t="s">
+        <v>505</v>
+      </c>
+      <c r="D215" t="str">
+        <f>VLOOKUP(C215,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0091</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A216">
+        <v>215</v>
+      </c>
+      <c r="B216" t="s">
+        <v>895</v>
+      </c>
+      <c r="C216" t="s">
+        <v>602</v>
+      </c>
+      <c r="D216" t="str">
+        <f>VLOOKUP(C216,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0019</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A217">
+        <v>216</v>
+      </c>
+      <c r="B217" t="s">
+        <v>896</v>
+      </c>
+      <c r="C217" t="s">
+        <v>592</v>
+      </c>
+      <c r="D217" t="str">
+        <f>VLOOKUP(C217,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0077</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A218">
+        <v>217</v>
+      </c>
+      <c r="B218" t="s">
+        <v>897</v>
+      </c>
+      <c r="C218" t="s">
+        <v>496</v>
+      </c>
+      <c r="D218" t="str">
+        <f>VLOOKUP(C218,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0115</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A219">
+        <v>218</v>
+      </c>
+      <c r="B219" t="s">
+        <v>897</v>
+      </c>
+      <c r="C219" t="s">
+        <v>737</v>
+      </c>
+      <c r="D219" t="str">
+        <f>VLOOKUP(C219,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0034</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A220">
+        <v>219</v>
+      </c>
+      <c r="B220" t="s">
+        <v>897</v>
+      </c>
+      <c r="C220" t="s">
+        <v>719</v>
+      </c>
+      <c r="D220" t="str">
+        <f>VLOOKUP(C220,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0006</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A221">
+        <v>220</v>
+      </c>
+      <c r="B221" t="s">
+        <v>898</v>
+      </c>
+      <c r="C221" t="s">
+        <v>751</v>
+      </c>
+      <c r="D221" t="str">
+        <f>VLOOKUP(C221,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0071</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A222">
+        <v>221</v>
+      </c>
+      <c r="B222" t="s">
+        <v>898</v>
+      </c>
+      <c r="C222" t="s">
+        <v>741</v>
+      </c>
+      <c r="D222" t="str">
+        <f>VLOOKUP(C222,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0135</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A223">
+        <v>222</v>
+      </c>
+      <c r="B223" t="s">
+        <v>899</v>
+      </c>
+      <c r="C223" t="s">
+        <v>752</v>
+      </c>
+      <c r="D223" t="str">
+        <f>VLOOKUP(C223,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0035</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A224">
+        <v>223</v>
+      </c>
+      <c r="B224" t="s">
+        <v>899</v>
+      </c>
+      <c r="C224" t="s">
+        <v>752</v>
+      </c>
+      <c r="D224" t="str">
+        <f>VLOOKUP(C224,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0035</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A225">
+        <v>224</v>
+      </c>
+      <c r="B225" t="s">
+        <v>900</v>
+      </c>
+      <c r="C225" t="s">
+        <v>650</v>
+      </c>
+      <c r="D225" t="str">
+        <f>VLOOKUP(C225,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0080</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A226">
+        <v>225</v>
+      </c>
+      <c r="B226" t="s">
+        <v>900</v>
+      </c>
+      <c r="C226" t="s">
+        <v>524</v>
+      </c>
+      <c r="D226" t="str">
+        <f>VLOOKUP(C226,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0108</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A227">
+        <v>226</v>
+      </c>
+      <c r="B227" t="s">
+        <v>900</v>
+      </c>
+      <c r="C227" t="s">
+        <v>708</v>
+      </c>
+      <c r="D227" t="str">
+        <f>VLOOKUP(C227,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0026</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A228">
+        <v>227</v>
+      </c>
+      <c r="B228" t="s">
+        <v>901</v>
+      </c>
+      <c r="C228" t="s">
+        <v>569</v>
+      </c>
+      <c r="D228" t="str">
+        <f>VLOOKUP(C228,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0145</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A229">
+        <v>228</v>
+      </c>
+      <c r="B229" t="s">
+        <v>901</v>
+      </c>
+      <c r="C229" t="s">
+        <v>753</v>
+      </c>
+      <c r="D229" t="str">
+        <f>VLOOKUP(C229,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0001</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A230">
+        <v>229</v>
+      </c>
+      <c r="B230" t="s">
+        <v>902</v>
+      </c>
+      <c r="C230" t="s">
+        <v>736</v>
+      </c>
+      <c r="D230" t="str">
+        <f>VLOOKUP(C230,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0007</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A231">
+        <v>230</v>
+      </c>
+      <c r="B231" t="s">
+        <v>902</v>
+      </c>
+      <c r="C231" t="s">
+        <v>632</v>
+      </c>
+      <c r="D231" t="str">
+        <f>VLOOKUP(C231,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0039</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A232">
+        <v>231</v>
+      </c>
+      <c r="B232" t="s">
+        <v>902</v>
+      </c>
+      <c r="C232" t="s">
+        <v>751</v>
+      </c>
+      <c r="D232" t="str">
+        <f>VLOOKUP(C232,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0071</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A233">
+        <v>232</v>
+      </c>
+      <c r="B233" t="s">
+        <v>903</v>
+      </c>
+      <c r="C233" t="s">
+        <v>548</v>
+      </c>
+      <c r="D233" t="str">
+        <f>VLOOKUP(C233,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0056</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A234">
+        <v>233</v>
+      </c>
+      <c r="B234" t="s">
+        <v>903</v>
+      </c>
+      <c r="C234" t="s">
+        <v>696</v>
+      </c>
+      <c r="D234" t="str">
+        <f>VLOOKUP(C234,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0044</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A235">
+        <v>234</v>
+      </c>
+      <c r="B235" t="s">
+        <v>903</v>
+      </c>
+      <c r="C235" t="s">
+        <v>494</v>
+      </c>
+      <c r="D235" t="str">
+        <f>VLOOKUP(C235,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0133</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A236">
+        <v>235</v>
+      </c>
+      <c r="B236" t="s">
+        <v>904</v>
+      </c>
+      <c r="C236" t="s">
+        <v>610</v>
+      </c>
+      <c r="D236" t="str">
+        <f>VLOOKUP(C236,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0062</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A237">
+        <v>236</v>
+      </c>
+      <c r="B237" t="s">
+        <v>905</v>
+      </c>
+      <c r="C237" t="s">
+        <v>611</v>
+      </c>
+      <c r="D237" t="str">
+        <f>VLOOKUP(C237,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0110</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A238">
+        <v>237</v>
+      </c>
+      <c r="B238" t="s">
+        <v>906</v>
+      </c>
+      <c r="C238" t="s">
+        <v>730</v>
+      </c>
+      <c r="D238" t="str">
+        <f>VLOOKUP(C238,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0127</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A239">
+        <v>238</v>
+      </c>
+      <c r="B239" t="s">
+        <v>906</v>
+      </c>
+      <c r="C239" t="s">
+        <v>656</v>
+      </c>
+      <c r="D239" t="str">
+        <f>VLOOKUP(C239,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0153</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A240">
+        <v>239</v>
+      </c>
+      <c r="B240" t="s">
+        <v>906</v>
+      </c>
+      <c r="C240" t="s">
+        <v>723</v>
+      </c>
+      <c r="D240" t="str">
+        <f>VLOOKUP(C240,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0149</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A241">
+        <v>240</v>
+      </c>
+      <c r="B241" t="s">
+        <v>907</v>
+      </c>
+      <c r="C241" t="s">
+        <v>613</v>
+      </c>
+      <c r="D241" t="str">
+        <f>VLOOKUP(C241,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0018</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A242">
+        <v>241</v>
+      </c>
+      <c r="B242" t="s">
+        <v>908</v>
+      </c>
+      <c r="C242" t="s">
+        <v>721</v>
+      </c>
+      <c r="D242" t="str">
+        <f>VLOOKUP(C242,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0111</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A243">
+        <v>242</v>
+      </c>
+      <c r="B243" t="s">
+        <v>908</v>
+      </c>
+      <c r="C243" t="s">
+        <v>647</v>
+      </c>
+      <c r="D243" t="str">
+        <f>VLOOKUP(C243,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0005</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A244">
+        <v>243</v>
+      </c>
+      <c r="B244" t="s">
+        <v>909</v>
+      </c>
+      <c r="C244" t="s">
+        <v>751</v>
+      </c>
+      <c r="D244" t="str">
+        <f>VLOOKUP(C244,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0071</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A245">
+        <v>244</v>
+      </c>
+      <c r="B245" t="s">
+        <v>909</v>
+      </c>
+      <c r="C245" t="s">
+        <v>524</v>
+      </c>
+      <c r="D245" t="str">
+        <f>VLOOKUP(C245,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0108</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A246">
+        <v>245</v>
+      </c>
+      <c r="B246" t="s">
+        <v>909</v>
+      </c>
+      <c r="C246" t="s">
+        <v>518</v>
+      </c>
+      <c r="D246" t="str">
+        <f>VLOOKUP(C246,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0054</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A247">
+        <v>246</v>
+      </c>
+      <c r="B247" t="s">
+        <v>910</v>
+      </c>
+      <c r="C247" t="s">
+        <v>575</v>
+      </c>
+      <c r="D247" t="str">
+        <f>VLOOKUP(C247,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0027</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A248">
+        <v>247</v>
+      </c>
+      <c r="B248" t="s">
+        <v>911</v>
+      </c>
+      <c r="C248" t="s">
+        <v>701</v>
+      </c>
+      <c r="D248" t="str">
+        <f>VLOOKUP(C248,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0048</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A249">
+        <v>248</v>
+      </c>
+      <c r="B249" t="s">
+        <v>911</v>
+      </c>
+      <c r="C249" t="s">
+        <v>754</v>
+      </c>
+      <c r="D249" t="str">
+        <f>VLOOKUP(C249,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0123</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A250">
+        <v>249</v>
+      </c>
+      <c r="B250" t="s">
+        <v>912</v>
+      </c>
+      <c r="C250" t="s">
+        <v>703</v>
+      </c>
+      <c r="D250" t="str">
+        <f>VLOOKUP(C250,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0137</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A251">
+        <v>250</v>
+      </c>
+      <c r="B251" t="s">
+        <v>912</v>
+      </c>
+      <c r="C251" t="s">
+        <v>602</v>
+      </c>
+      <c r="D251" t="str">
+        <f>VLOOKUP(C251,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0019</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A252">
+        <v>251</v>
+      </c>
+      <c r="B252" t="s">
+        <v>913</v>
+      </c>
+      <c r="C252" t="s">
+        <v>705</v>
+      </c>
+      <c r="D252" t="str">
+        <f>VLOOKUP(C252,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0126</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A253">
+        <v>252</v>
+      </c>
+      <c r="B253" t="s">
+        <v>913</v>
+      </c>
+      <c r="C253" t="s">
+        <v>686</v>
+      </c>
+      <c r="D253" t="str">
+        <f>VLOOKUP(C253,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0012</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A254">
+        <v>253</v>
+      </c>
+      <c r="B254" t="s">
+        <v>913</v>
+      </c>
+      <c r="C254" t="s">
+        <v>743</v>
+      </c>
+      <c r="D254" t="str">
+        <f>VLOOKUP(C254,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0093</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A255">
+        <v>254</v>
+      </c>
+      <c r="B255" t="s">
+        <v>914</v>
+      </c>
+      <c r="C255" t="s">
+        <v>619</v>
+      </c>
+      <c r="D255" t="str">
+        <f>VLOOKUP(C255,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0124</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A256">
+        <v>255</v>
+      </c>
+      <c r="B256" t="s">
+        <v>915</v>
+      </c>
+      <c r="C256" t="s">
+        <v>750</v>
+      </c>
+      <c r="D256" t="str">
+        <f>VLOOKUP(C256,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0010</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A257">
+        <v>256</v>
+      </c>
+      <c r="B257" t="s">
+        <v>915</v>
+      </c>
+      <c r="C257" t="s">
+        <v>656</v>
+      </c>
+      <c r="D257" t="str">
+        <f>VLOOKUP(C257,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0153</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A258">
+        <v>257</v>
+      </c>
+      <c r="B258" t="s">
+        <v>916</v>
+      </c>
+      <c r="C258" t="s">
+        <v>550</v>
+      </c>
+      <c r="D258" t="str">
+        <f>VLOOKUP(C258,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0114</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A259">
+        <v>258</v>
+      </c>
+      <c r="B259" t="s">
+        <v>916</v>
+      </c>
+      <c r="C259" t="s">
+        <v>755</v>
+      </c>
+      <c r="D259" t="str">
+        <f>VLOOKUP(C259,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0156</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A260">
+        <v>259</v>
+      </c>
+      <c r="B260" t="s">
+        <v>916</v>
+      </c>
+      <c r="C260" t="s">
+        <v>585</v>
+      </c>
+      <c r="D260" t="str">
+        <f>VLOOKUP(C260,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0070</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A261">
+        <v>260</v>
+      </c>
+      <c r="B261" t="s">
+        <v>917</v>
+      </c>
+      <c r="C261" t="s">
+        <v>757</v>
+      </c>
+      <c r="D261" t="str">
+        <f>VLOOKUP(C261,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0102</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A262">
+        <v>261</v>
+      </c>
+      <c r="B262" t="s">
+        <v>917</v>
+      </c>
+      <c r="C262" t="s">
+        <v>756</v>
+      </c>
+      <c r="D262" t="str">
+        <f>VLOOKUP(C262,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0122</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A263">
+        <v>262</v>
+      </c>
+      <c r="B263" t="s">
+        <v>918</v>
+      </c>
+      <c r="C263" t="s">
+        <v>729</v>
+      </c>
+      <c r="D263" t="str">
+        <f>VLOOKUP(C263,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0104</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A264">
+        <v>263</v>
+      </c>
+      <c r="B264" t="s">
+        <v>918</v>
+      </c>
+      <c r="C264" t="s">
+        <v>721</v>
+      </c>
+      <c r="D264" t="str">
+        <f>VLOOKUP(C264,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0111</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A265">
+        <v>264</v>
+      </c>
+      <c r="B265" t="s">
+        <v>919</v>
+      </c>
+      <c r="C265" t="s">
+        <v>682</v>
+      </c>
+      <c r="D265" t="str">
+        <f>VLOOKUP(C265,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0073</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A266">
+        <v>265</v>
+      </c>
+      <c r="B266" t="s">
+        <v>919</v>
+      </c>
+      <c r="C266" t="s">
+        <v>757</v>
+      </c>
+      <c r="D266" t="str">
+        <f>VLOOKUP(C266,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0102</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A267">
+        <v>266</v>
+      </c>
+      <c r="B267" t="s">
+        <v>920</v>
+      </c>
+      <c r="C267" t="s">
+        <v>758</v>
+      </c>
+      <c r="D267" t="str">
+        <f>VLOOKUP(C267,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0125</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A268">
+        <v>267</v>
+      </c>
+      <c r="B268" t="s">
+        <v>920</v>
+      </c>
+      <c r="C268" t="s">
+        <v>753</v>
+      </c>
+      <c r="D268" t="str">
+        <f>VLOOKUP(C268,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0001</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A269">
+        <v>268</v>
+      </c>
+      <c r="B269" t="s">
+        <v>921</v>
+      </c>
+      <c r="C269" t="s">
+        <v>688</v>
+      </c>
+      <c r="D269" t="str">
+        <f>VLOOKUP(C269,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0079</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A270">
+        <v>269</v>
+      </c>
+      <c r="B270" t="s">
+        <v>921</v>
+      </c>
+      <c r="C270" t="s">
+        <v>720</v>
+      </c>
+      <c r="D270" t="str">
+        <f>VLOOKUP(C270,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0146</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A271">
+        <v>270</v>
+      </c>
+      <c r="B271" t="s">
+        <v>922</v>
+      </c>
+      <c r="C271" t="s">
+        <v>689</v>
+      </c>
+      <c r="D271" t="str">
+        <f>VLOOKUP(C271,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0094</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A272">
+        <v>271</v>
+      </c>
+      <c r="B272" t="s">
+        <v>922</v>
+      </c>
+      <c r="C272" t="s">
+        <v>711</v>
+      </c>
+      <c r="D272" t="str">
+        <f>VLOOKUP(C272,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0009</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A273">
+        <v>272</v>
+      </c>
+      <c r="B273" t="s">
+        <v>923</v>
+      </c>
+      <c r="C273" t="s">
+        <v>706</v>
+      </c>
+      <c r="D273" t="str">
+        <f>VLOOKUP(C273,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0057</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A274">
+        <v>273</v>
+      </c>
+      <c r="B274" t="s">
+        <v>923</v>
+      </c>
+      <c r="C274" t="s">
+        <v>708</v>
+      </c>
+      <c r="D274" t="str">
+        <f>VLOOKUP(C274,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0026</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A275">
+        <v>274</v>
+      </c>
+      <c r="B275" t="s">
+        <v>924</v>
+      </c>
+      <c r="C275" t="s">
+        <v>759</v>
+      </c>
+      <c r="D275" t="str">
+        <f>VLOOKUP(C275,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0088</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A276">
+        <v>275</v>
+      </c>
+      <c r="B276" t="s">
+        <v>924</v>
+      </c>
+      <c r="C276" t="s">
+        <v>728</v>
+      </c>
+      <c r="D276" t="str">
+        <f>VLOOKUP(C276,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0053</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A277">
+        <v>276</v>
+      </c>
+      <c r="B277" t="s">
+        <v>924</v>
+      </c>
+      <c r="C277" t="s">
+        <v>495</v>
+      </c>
+      <c r="D277" t="str">
+        <f>VLOOKUP(C277,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0078</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A278">
+        <v>277</v>
+      </c>
+      <c r="B278" t="s">
+        <v>925</v>
+      </c>
+      <c r="C278" t="s">
+        <v>575</v>
+      </c>
+      <c r="D278" t="str">
+        <f>VLOOKUP(C278,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0027</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A279">
+        <v>278</v>
+      </c>
+      <c r="B279" t="s">
+        <v>925</v>
+      </c>
+      <c r="C279" t="s">
+        <v>576</v>
+      </c>
+      <c r="D279" t="str">
+        <f>VLOOKUP(C279,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0049</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A280">
+        <v>279</v>
+      </c>
+      <c r="B280" t="s">
+        <v>926</v>
+      </c>
+      <c r="C280" t="s">
+        <v>631</v>
+      </c>
+      <c r="D280" t="str">
+        <f>VLOOKUP(C280,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0097</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A281">
+        <v>280</v>
+      </c>
+      <c r="B281" t="s">
+        <v>927</v>
+      </c>
+      <c r="C281" t="s">
+        <v>632</v>
+      </c>
+      <c r="D281" t="str">
+        <f>VLOOKUP(C281,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0039</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A282">
+        <v>281</v>
+      </c>
+      <c r="B282" t="s">
+        <v>928</v>
+      </c>
+      <c r="C282" t="s">
+        <v>760</v>
+      </c>
+      <c r="D282" t="str">
+        <f>VLOOKUP(C282,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0139</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A283">
+        <v>282</v>
+      </c>
+      <c r="B283" t="s">
+        <v>928</v>
+      </c>
+      <c r="C283" t="s">
+        <v>583</v>
+      </c>
+      <c r="D283" t="str">
+        <f>VLOOKUP(C283,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0107</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A284">
+        <v>283</v>
+      </c>
+      <c r="B284" t="s">
+        <v>928</v>
+      </c>
+      <c r="C284" t="s">
+        <v>650</v>
+      </c>
+      <c r="D284" t="str">
+        <f>VLOOKUP(C284,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0080</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A285">
+        <v>284</v>
+      </c>
+      <c r="B285" t="s">
+        <v>929</v>
+      </c>
+      <c r="C285" t="s">
+        <v>574</v>
+      </c>
+      <c r="D285" t="str">
+        <f>VLOOKUP(C285,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0141</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A286">
+        <v>285</v>
+      </c>
+      <c r="B286" t="s">
+        <v>929</v>
+      </c>
+      <c r="C286" t="s">
+        <v>761</v>
+      </c>
+      <c r="D286" t="str">
+        <f>VLOOKUP(C286,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0041</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A287">
+        <v>286</v>
+      </c>
+      <c r="B287" t="s">
+        <v>930</v>
+      </c>
+      <c r="C287" t="s">
+        <v>763</v>
+      </c>
+      <c r="D287" t="str">
+        <f>VLOOKUP(C287,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0154</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A288">
+        <v>287</v>
+      </c>
+      <c r="B288" t="s">
+        <v>930</v>
+      </c>
+      <c r="C288" t="s">
+        <v>529</v>
+      </c>
+      <c r="D288" t="str">
+        <f>VLOOKUP(C288,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0025</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A289">
+        <v>288</v>
+      </c>
+      <c r="B289" t="s">
+        <v>930</v>
+      </c>
+      <c r="C289" t="s">
+        <v>762</v>
+      </c>
+      <c r="D289" t="str">
+        <f>VLOOKUP(C289,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0068</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A290">
+        <v>289</v>
+      </c>
+      <c r="B290" t="s">
+        <v>931</v>
+      </c>
+      <c r="C290" t="s">
+        <v>611</v>
+      </c>
+      <c r="D290" t="str">
+        <f>VLOOKUP(C290,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0110</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A291">
+        <v>290</v>
+      </c>
+      <c r="B291" t="s">
+        <v>931</v>
+      </c>
+      <c r="C291" t="s">
+        <v>673</v>
+      </c>
+      <c r="D291" t="str">
+        <f>VLOOKUP(C291,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0100</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A292">
+        <v>291</v>
+      </c>
+      <c r="B292" t="s">
+        <v>931</v>
+      </c>
+      <c r="C292" t="s">
+        <v>708</v>
+      </c>
+      <c r="D292" t="str">
+        <f>VLOOKUP(C292,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0026</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A293">
+        <v>292</v>
+      </c>
+      <c r="B293" t="s">
+        <v>932</v>
+      </c>
+      <c r="C293" t="s">
+        <v>738</v>
+      </c>
+      <c r="D293" t="str">
+        <f>VLOOKUP(C293,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0028</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A294">
+        <v>293</v>
+      </c>
+      <c r="B294" t="s">
+        <v>932</v>
+      </c>
+      <c r="C294" t="s">
+        <v>764</v>
+      </c>
+      <c r="D294" t="str">
+        <f>VLOOKUP(C294,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0150</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A295">
+        <v>294</v>
+      </c>
+      <c r="B295" t="s">
+        <v>933</v>
+      </c>
+      <c r="C295" t="s">
+        <v>716</v>
+      </c>
+      <c r="D295" t="str">
+        <f>VLOOKUP(C295,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0129</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A296">
+        <v>295</v>
+      </c>
+      <c r="B296" t="s">
+        <v>933</v>
+      </c>
+      <c r="C296" t="s">
+        <v>575</v>
+      </c>
+      <c r="D296" t="str">
+        <f>VLOOKUP(C296,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0027</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A297">
+        <v>296</v>
+      </c>
+      <c r="B297" t="s">
+        <v>934</v>
+      </c>
+      <c r="C297" t="s">
+        <v>702</v>
+      </c>
+      <c r="D297" t="str">
+        <f>VLOOKUP(C297,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0011</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A298">
+        <v>297</v>
+      </c>
+      <c r="B298" t="s">
+        <v>934</v>
+      </c>
+      <c r="C298" t="s">
+        <v>746</v>
+      </c>
+      <c r="D298" t="str">
+        <f>VLOOKUP(C298,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0059</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A299">
+        <v>298</v>
+      </c>
+      <c r="B299" t="s">
+        <v>934</v>
+      </c>
+      <c r="C299" t="s">
+        <v>718</v>
+      </c>
+      <c r="D299" t="str">
+        <f>VLOOKUP(C299,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0063</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A300">
+        <v>299</v>
+      </c>
+      <c r="B300" t="s">
+        <v>935</v>
+      </c>
+      <c r="C300" t="s">
+        <v>744</v>
+      </c>
+      <c r="D300" t="str">
+        <f>VLOOKUP(C300,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0147</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A301">
+        <v>300</v>
+      </c>
+      <c r="B301" t="s">
+        <v>935</v>
+      </c>
+      <c r="C301" t="s">
+        <v>765</v>
+      </c>
+      <c r="D301" t="str">
+        <f>VLOOKUP(C301,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0116</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A302">
+        <v>301</v>
+      </c>
+      <c r="B302" t="s">
+        <v>936</v>
+      </c>
+      <c r="C302" t="s">
+        <v>641</v>
+      </c>
+      <c r="D302" t="str">
+        <f>VLOOKUP(C302,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0086</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A303">
+        <v>302</v>
+      </c>
+      <c r="B303" t="s">
+        <v>937</v>
+      </c>
+      <c r="C303" t="s">
+        <v>767</v>
+      </c>
+      <c r="D303" t="str">
+        <f>VLOOKUP(C303,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0074</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A304">
+        <v>303</v>
+      </c>
+      <c r="B304" t="s">
+        <v>937</v>
+      </c>
+      <c r="C304" t="s">
+        <v>689</v>
+      </c>
+      <c r="D304" t="str">
+        <f>VLOOKUP(C304,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0094</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A305">
+        <v>304</v>
+      </c>
+      <c r="B305" t="s">
+        <v>937</v>
+      </c>
+      <c r="C305" t="s">
+        <v>766</v>
+      </c>
+      <c r="D305" t="str">
+        <f>VLOOKUP(C305,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0087</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A306">
+        <v>305</v>
+      </c>
+      <c r="B306" t="s">
+        <v>938</v>
+      </c>
+      <c r="C306" t="s">
+        <v>498</v>
+      </c>
+      <c r="D306" t="str">
+        <f>VLOOKUP(C306,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0148</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A307">
+        <v>306</v>
+      </c>
+      <c r="B307" t="s">
+        <v>939</v>
+      </c>
+      <c r="C307" t="s">
+        <v>505</v>
+      </c>
+      <c r="D307" t="str">
+        <f>VLOOKUP(C307,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0091</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A308">
+        <v>307</v>
+      </c>
+      <c r="B308" t="s">
+        <v>939</v>
+      </c>
+      <c r="C308" t="s">
+        <v>524</v>
+      </c>
+      <c r="D308" t="str">
+        <f>VLOOKUP(C308,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0108</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A309">
+        <v>308</v>
+      </c>
+      <c r="B309" t="s">
+        <v>940</v>
+      </c>
+      <c r="C309" t="s">
+        <v>768</v>
+      </c>
+      <c r="D309" t="str">
+        <f>VLOOKUP(C309,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0109</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A310">
+        <v>309</v>
+      </c>
+      <c r="B310" t="s">
+        <v>940</v>
+      </c>
+      <c r="C310" t="s">
+        <v>743</v>
+      </c>
+      <c r="D310" t="str">
+        <f>VLOOKUP(C310,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0093</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A311">
+        <v>310</v>
+      </c>
+      <c r="B311" t="s">
+        <v>941</v>
+      </c>
+      <c r="C311" t="s">
+        <v>750</v>
+      </c>
+      <c r="D311" t="str">
+        <f>VLOOKUP(C311,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0010</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A312">
+        <v>311</v>
+      </c>
+      <c r="B312" t="s">
+        <v>941</v>
+      </c>
+      <c r="C312" t="s">
+        <v>714</v>
+      </c>
+      <c r="D312" t="str">
+        <f>VLOOKUP(C312,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0140</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A313">
+        <v>312</v>
+      </c>
+      <c r="B313" t="s">
+        <v>942</v>
+      </c>
+      <c r="C313" t="s">
+        <v>583</v>
+      </c>
+      <c r="D313" t="str">
+        <f>VLOOKUP(C313,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0107</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A314">
+        <v>313</v>
+      </c>
+      <c r="B314" t="s">
+        <v>943</v>
+      </c>
+      <c r="C314" t="s">
+        <v>692</v>
+      </c>
+      <c r="D314" t="str">
+        <f>VLOOKUP(C314,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0112</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A315">
+        <v>314</v>
+      </c>
+      <c r="B315" t="s">
+        <v>943</v>
+      </c>
+      <c r="C315" t="s">
+        <v>733</v>
+      </c>
+      <c r="D315" t="str">
+        <f>VLOOKUP(C315,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0021</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A316">
+        <v>315</v>
+      </c>
+      <c r="B316" t="s">
+        <v>943</v>
+      </c>
+      <c r="C316" t="s">
+        <v>732</v>
+      </c>
+      <c r="D316" t="str">
+        <f>VLOOKUP(C316,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0098</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A317">
+        <v>316</v>
+      </c>
+      <c r="B317" t="s">
+        <v>944</v>
+      </c>
+      <c r="C317" t="s">
+        <v>647</v>
+      </c>
+      <c r="D317" t="str">
+        <f>VLOOKUP(C317,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0005</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A318">
+        <v>317</v>
+      </c>
+      <c r="B318" t="s">
+        <v>945</v>
+      </c>
+      <c r="C318" t="s">
+        <v>567</v>
+      </c>
+      <c r="D318" t="str">
+        <f>VLOOKUP(C318,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0061</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A319">
+        <v>318</v>
+      </c>
+      <c r="B319" t="s">
+        <v>945</v>
+      </c>
+      <c r="C319" t="s">
+        <v>769</v>
+      </c>
+      <c r="D319" t="str">
+        <f>VLOOKUP(C319,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0023</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A320">
+        <v>319</v>
+      </c>
+      <c r="B320" t="s">
+        <v>946</v>
+      </c>
+      <c r="C320" t="s">
+        <v>493</v>
+      </c>
+      <c r="D320" t="str">
+        <f>VLOOKUP(C320,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0020</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A321">
+        <v>320</v>
+      </c>
+      <c r="B321" t="s">
+        <v>947</v>
+      </c>
+      <c r="C321" t="s">
+        <v>649</v>
+      </c>
+      <c r="D321" t="str">
+        <f>VLOOKUP(C321,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0092</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A322">
+        <v>321</v>
+      </c>
+      <c r="B322" t="s">
+        <v>948</v>
+      </c>
+      <c r="C322" t="s">
+        <v>650</v>
+      </c>
+      <c r="D322" t="str">
+        <f>VLOOKUP(C322,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0080</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A323">
+        <v>322</v>
+      </c>
+      <c r="B323" t="s">
+        <v>949</v>
+      </c>
+      <c r="C323" t="s">
+        <v>504</v>
+      </c>
+      <c r="D323" t="str">
+        <f>VLOOKUP(C323,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0024</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A324">
+        <v>323</v>
+      </c>
+      <c r="B324" t="s">
+        <v>950</v>
+      </c>
+      <c r="C324" t="s">
+        <v>554</v>
+      </c>
+      <c r="D324" t="str">
+        <f>VLOOKUP(C324,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0017</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A325">
+        <v>324</v>
+      </c>
+      <c r="B325" t="s">
+        <v>951</v>
+      </c>
+      <c r="C325" t="s">
+        <v>751</v>
+      </c>
+      <c r="D325" t="str">
+        <f>VLOOKUP(C325,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0071</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A326">
+        <v>325</v>
+      </c>
+      <c r="B326" t="s">
+        <v>951</v>
+      </c>
+      <c r="C326" t="s">
+        <v>722</v>
+      </c>
+      <c r="D326" t="str">
+        <f>VLOOKUP(C326,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0004</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A327">
+        <v>326</v>
+      </c>
+      <c r="B327" t="s">
+        <v>951</v>
+      </c>
+      <c r="C327" t="s">
+        <v>577</v>
+      </c>
+      <c r="D327" t="str">
+        <f>VLOOKUP(C327,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0032</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A328">
+        <v>327</v>
+      </c>
+      <c r="B328" t="s">
+        <v>952</v>
+      </c>
+      <c r="C328" t="s">
+        <v>691</v>
+      </c>
+      <c r="D328" t="str">
+        <f>VLOOKUP(C328,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0134</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A329">
+        <v>328</v>
+      </c>
+      <c r="B329" t="s">
+        <v>952</v>
+      </c>
+      <c r="C329" t="s">
+        <v>711</v>
+      </c>
+      <c r="D329" t="str">
+        <f>VLOOKUP(C329,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0009</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A330">
+        <v>329</v>
+      </c>
+      <c r="B330" t="s">
+        <v>953</v>
+      </c>
+      <c r="C330" t="s">
+        <v>770</v>
+      </c>
+      <c r="D330" t="str">
+        <f>VLOOKUP(C330,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0014</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A331">
+        <v>330</v>
+      </c>
+      <c r="B331" t="s">
+        <v>953</v>
+      </c>
+      <c r="C331" t="s">
+        <v>698</v>
+      </c>
+      <c r="D331" t="str">
+        <f>VLOOKUP(C331,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0138</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A332">
+        <v>331</v>
+      </c>
+      <c r="B332" t="s">
+        <v>954</v>
+      </c>
+      <c r="C332" t="s">
+        <v>654</v>
+      </c>
+      <c r="D332" t="str">
+        <f>VLOOKUP(C332,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0131</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A333">
+        <v>332</v>
+      </c>
+      <c r="B333" t="s">
+        <v>955</v>
+      </c>
+      <c r="C333" t="s">
+        <v>763</v>
+      </c>
+      <c r="D333" t="str">
+        <f>VLOOKUP(C333,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0154</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A334">
+        <v>333</v>
+      </c>
+      <c r="B334" t="s">
+        <v>955</v>
+      </c>
+      <c r="C334" t="s">
+        <v>592</v>
+      </c>
+      <c r="D334" t="str">
+        <f>VLOOKUP(C334,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0077</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A335">
+        <v>334</v>
+      </c>
+      <c r="B335" t="s">
+        <v>955</v>
+      </c>
+      <c r="C335" t="s">
+        <v>690</v>
+      </c>
+      <c r="D335" t="str">
+        <f>VLOOKUP(C335,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0081</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A336">
+        <v>335</v>
+      </c>
+      <c r="B336" t="s">
+        <v>956</v>
+      </c>
+      <c r="C336" t="s">
+        <v>656</v>
+      </c>
+      <c r="D336" t="str">
+        <f>VLOOKUP(C336,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0153</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A337">
+        <v>336</v>
+      </c>
+      <c r="B337" t="s">
+        <v>957</v>
+      </c>
+      <c r="C337" t="s">
+        <v>507</v>
+      </c>
+      <c r="D337" t="str">
+        <f>VLOOKUP(C337,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0118</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A338">
+        <v>337</v>
+      </c>
+      <c r="B338" t="s">
+        <v>957</v>
+      </c>
+      <c r="C338" t="s">
+        <v>708</v>
+      </c>
+      <c r="D338" t="str">
+        <f>VLOOKUP(C338,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0026</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A339">
+        <v>338</v>
+      </c>
+      <c r="B339" t="s">
+        <v>958</v>
+      </c>
+      <c r="C339" t="s">
+        <v>681</v>
+      </c>
+      <c r="D339" t="str">
+        <f>VLOOKUP(C339,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0157</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A340">
+        <v>339</v>
+      </c>
+      <c r="B340" t="s">
+        <v>958</v>
+      </c>
+      <c r="C340" t="s">
+        <v>719</v>
+      </c>
+      <c r="D340" t="str">
+        <f>VLOOKUP(C340,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0006</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A341">
+        <v>340</v>
+      </c>
+      <c r="B341" t="s">
+        <v>959</v>
+      </c>
+      <c r="C341" t="s">
+        <v>750</v>
+      </c>
+      <c r="D341" t="str">
+        <f>VLOOKUP(C341,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0010</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A342">
+        <v>341</v>
+      </c>
+      <c r="B342" t="s">
+        <v>959</v>
+      </c>
+      <c r="C342" t="s">
+        <v>707</v>
+      </c>
+      <c r="D342" t="str">
+        <f>VLOOKUP(C342,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0040</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A343">
+        <v>342</v>
+      </c>
+      <c r="B343" t="s">
+        <v>959</v>
+      </c>
+      <c r="C343" t="s">
+        <v>567</v>
+      </c>
+      <c r="D343" t="str">
+        <f>VLOOKUP(C343,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0061</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A344">
+        <v>343</v>
+      </c>
+      <c r="B344" t="s">
+        <v>960</v>
+      </c>
+      <c r="C344" t="s">
+        <v>545</v>
+      </c>
+      <c r="D344" t="str">
+        <f>VLOOKUP(C344,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0069</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A345">
+        <v>344</v>
+      </c>
+      <c r="B345" t="s">
+        <v>960</v>
+      </c>
+      <c r="C345" t="s">
+        <v>772</v>
+      </c>
+      <c r="D345" t="str">
+        <f>VLOOKUP(C345,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0136</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A346">
+        <v>345</v>
+      </c>
+      <c r="B346" t="s">
+        <v>960</v>
+      </c>
+      <c r="C346" t="s">
+        <v>771</v>
+      </c>
+      <c r="D346" t="str">
+        <f>VLOOKUP(C346,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0084</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A347">
+        <v>346</v>
+      </c>
+      <c r="B347" t="s">
+        <v>961</v>
+      </c>
+      <c r="C347" t="s">
+        <v>728</v>
+      </c>
+      <c r="D347" t="str">
+        <f>VLOOKUP(C347,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0053</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A348">
+        <v>347</v>
+      </c>
+      <c r="B348" t="s">
+        <v>961</v>
+      </c>
+      <c r="C348" t="s">
+        <v>492</v>
+      </c>
+      <c r="D348" t="str">
+        <f>VLOOKUP(C348,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0095</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A349">
+        <v>348</v>
+      </c>
+      <c r="B349" t="s">
+        <v>961</v>
+      </c>
+      <c r="C349" t="s">
+        <v>498</v>
+      </c>
+      <c r="D349" t="str">
+        <f>VLOOKUP(C349,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0148</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A350">
+        <v>349</v>
+      </c>
+      <c r="B350" t="s">
+        <v>962</v>
+      </c>
+      <c r="C350" t="s">
+        <v>494</v>
+      </c>
+      <c r="D350" t="str">
+        <f>VLOOKUP(C350,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0133</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A351">
+        <v>350</v>
+      </c>
+      <c r="B351" t="s">
+        <v>962</v>
+      </c>
+      <c r="C351" t="s">
+        <v>692</v>
+      </c>
+      <c r="D351" t="str">
+        <f>VLOOKUP(C351,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0112</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A352">
+        <v>351</v>
+      </c>
+      <c r="B352" t="s">
+        <v>962</v>
+      </c>
+      <c r="C352" t="s">
+        <v>524</v>
+      </c>
+      <c r="D352" t="str">
+        <f>VLOOKUP(C352,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0108</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A353">
+        <v>352</v>
+      </c>
+      <c r="B353" t="s">
+        <v>963</v>
+      </c>
+      <c r="C353" t="s">
+        <v>773</v>
+      </c>
+      <c r="D353" t="str">
+        <f>VLOOKUP(C353,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0046</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A354">
+        <v>353</v>
+      </c>
+      <c r="B354" t="s">
+        <v>963</v>
+      </c>
+      <c r="C354" t="s">
+        <v>729</v>
+      </c>
+      <c r="D354" t="str">
+        <f>VLOOKUP(C354,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0104</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A355">
+        <v>354</v>
+      </c>
+      <c r="B355" t="s">
+        <v>963</v>
+      </c>
+      <c r="C355" t="s">
+        <v>602</v>
+      </c>
+      <c r="D355" t="str">
+        <f>VLOOKUP(C355,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0019</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A356">
+        <v>355</v>
+      </c>
+      <c r="B356" t="s">
+        <v>964</v>
+      </c>
+      <c r="C356" t="s">
+        <v>664</v>
+      </c>
+      <c r="D356" t="str">
+        <f>VLOOKUP(C356,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0051</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A357">
+        <v>356</v>
+      </c>
+      <c r="B357" t="s">
+        <v>965</v>
+      </c>
+      <c r="C357" t="s">
+        <v>665</v>
+      </c>
+      <c r="D357" t="str">
+        <f>VLOOKUP(C357,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0083</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A358">
+        <v>357</v>
+      </c>
+      <c r="B358" t="s">
+        <v>966</v>
+      </c>
+      <c r="C358" t="s">
+        <v>758</v>
+      </c>
+      <c r="D358" t="str">
+        <f>VLOOKUP(C358,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0125</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A359">
+        <v>358</v>
+      </c>
+      <c r="B359" t="s">
+        <v>966</v>
+      </c>
+      <c r="C359" t="s">
+        <v>600</v>
+      </c>
+      <c r="D359" t="str">
+        <f>VLOOKUP(C359,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0099</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A360">
+        <v>359</v>
+      </c>
+      <c r="B360" t="s">
+        <v>966</v>
+      </c>
+      <c r="C360" t="s">
+        <v>492</v>
+      </c>
+      <c r="D360" t="str">
+        <f>VLOOKUP(C360,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0095</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A361">
+        <v>360</v>
+      </c>
+      <c r="B361" t="s">
+        <v>967</v>
+      </c>
+      <c r="C361" t="s">
+        <v>710</v>
+      </c>
+      <c r="D361" t="str">
+        <f>VLOOKUP(C361,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0096</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A362">
+        <v>361</v>
+      </c>
+      <c r="B362" t="s">
+        <v>967</v>
+      </c>
+      <c r="C362" t="s">
+        <v>725</v>
+      </c>
+      <c r="D362" t="str">
+        <f>VLOOKUP(C362,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0076</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A363">
+        <v>362</v>
+      </c>
+      <c r="B363" t="s">
+        <v>968</v>
+      </c>
+      <c r="C363" t="s">
+        <v>715</v>
+      </c>
+      <c r="D363" t="str">
+        <f>VLOOKUP(C363,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0008</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A364">
+        <v>363</v>
+      </c>
+      <c r="B364" t="s">
+        <v>968</v>
+      </c>
+      <c r="C364" t="s">
+        <v>691</v>
+      </c>
+      <c r="D364" t="str">
+        <f>VLOOKUP(C364,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0134</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A365">
+        <v>364</v>
+      </c>
+      <c r="B365" t="s">
+        <v>968</v>
+      </c>
+      <c r="C365" t="s">
+        <v>537</v>
+      </c>
+      <c r="D365" t="str">
+        <f>VLOOKUP(C365,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0003</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A366">
+        <v>365</v>
+      </c>
+      <c r="B366" t="s">
+        <v>969</v>
+      </c>
+      <c r="C366" t="s">
+        <v>669</v>
+      </c>
+      <c r="D366" t="str">
+        <f>VLOOKUP(C366,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0130</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A367">
+        <v>366</v>
+      </c>
+      <c r="B367" t="s">
+        <v>970</v>
+      </c>
+      <c r="C367" t="s">
+        <v>534</v>
+      </c>
+      <c r="D367" t="str">
+        <f>VLOOKUP(C367,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0120</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A368">
+        <v>367</v>
+      </c>
+      <c r="B368" t="s">
+        <v>970</v>
+      </c>
+      <c r="C368" t="s">
+        <v>688</v>
+      </c>
+      <c r="D368" t="str">
+        <f>VLOOKUP(C368,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0079</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A369">
+        <v>368</v>
+      </c>
+      <c r="B369" t="s">
+        <v>971</v>
+      </c>
+      <c r="C369" t="s">
+        <v>671</v>
+      </c>
+      <c r="D369" t="str">
+        <f>VLOOKUP(C369,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0128</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A370">
+        <v>369</v>
+      </c>
+      <c r="B370" t="s">
+        <v>972</v>
+      </c>
+      <c r="C370" t="s">
+        <v>516</v>
+      </c>
+      <c r="D370" t="str">
+        <f>VLOOKUP(C370,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0038</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A371">
+        <v>370</v>
+      </c>
+      <c r="B371" t="s">
+        <v>972</v>
+      </c>
+      <c r="C371" t="s">
+        <v>745</v>
+      </c>
+      <c r="D371" t="str">
+        <f>VLOOKUP(C371,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0058</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A372">
+        <v>371</v>
+      </c>
+      <c r="B372" t="s">
+        <v>972</v>
+      </c>
+      <c r="C372" t="s">
+        <v>715</v>
+      </c>
+      <c r="D372" t="str">
+        <f>VLOOKUP(C372,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0008</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A373">
+        <v>372</v>
+      </c>
+      <c r="B373" t="s">
+        <v>973</v>
+      </c>
+      <c r="C373" t="s">
+        <v>613</v>
+      </c>
+      <c r="D373" t="str">
+        <f>VLOOKUP(C373,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0018</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A374">
+        <v>373</v>
+      </c>
+      <c r="B374" t="s">
+        <v>974</v>
+      </c>
+      <c r="C374" t="s">
+        <v>673</v>
+      </c>
+      <c r="D374" t="str">
+        <f>VLOOKUP(C374,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0100</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A375">
+        <v>374</v>
+      </c>
+      <c r="B375" t="s">
+        <v>975</v>
+      </c>
+      <c r="C375" t="s">
+        <v>774</v>
+      </c>
+      <c r="D375" t="str">
+        <f>VLOOKUP(C375,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0033</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A376">
+        <v>375</v>
+      </c>
+      <c r="B376" t="s">
+        <v>975</v>
+      </c>
+      <c r="C376" t="s">
+        <v>724</v>
+      </c>
+      <c r="D376" t="str">
+        <f>VLOOKUP(C376,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0106</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A377">
+        <v>376</v>
+      </c>
+      <c r="B377" t="s">
+        <v>975</v>
+      </c>
+      <c r="C377" t="s">
+        <v>704</v>
+      </c>
+      <c r="D377" t="str">
+        <f>VLOOKUP(C377,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0022</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A378">
+        <v>377</v>
+      </c>
+      <c r="B378" t="s">
+        <v>976</v>
+      </c>
+      <c r="C378" t="s">
+        <v>682</v>
+      </c>
+      <c r="D378" t="str">
+        <f>VLOOKUP(C378,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0073</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A379">
+        <v>378</v>
+      </c>
+      <c r="B379" t="s">
+        <v>976</v>
+      </c>
+      <c r="C379" t="s">
+        <v>775</v>
+      </c>
+      <c r="D379" t="str">
+        <f>VLOOKUP(C379,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0113</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A380">
+        <v>379</v>
+      </c>
+      <c r="B380" t="s">
+        <v>977</v>
+      </c>
+      <c r="C380" t="s">
+        <v>728</v>
+      </c>
+      <c r="D380" t="str">
+        <f>VLOOKUP(C380,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0053</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A381">
+        <v>380</v>
+      </c>
+      <c r="B381" t="s">
+        <v>977</v>
+      </c>
+      <c r="C381" t="s">
+        <v>692</v>
+      </c>
+      <c r="D381" t="str">
+        <f>VLOOKUP(C381,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0112</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A382">
+        <v>381</v>
+      </c>
+      <c r="B382" t="s">
+        <v>978</v>
+      </c>
+      <c r="C382" t="s">
+        <v>529</v>
+      </c>
+      <c r="D382" t="str">
+        <f>VLOOKUP(C382,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0025</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A383">
+        <v>382</v>
+      </c>
+      <c r="B383" t="s">
+        <v>979</v>
+      </c>
+      <c r="C383" t="s">
+        <v>529</v>
+      </c>
+      <c r="D383" t="str">
+        <f>VLOOKUP(C383,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0025</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A384">
+        <v>383</v>
+      </c>
+      <c r="B384" t="s">
+        <v>979</v>
+      </c>
+      <c r="C384" t="s">
+        <v>776</v>
+      </c>
+      <c r="D384" t="str">
+        <f>VLOOKUP(C384,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0045</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A385">
+        <v>384</v>
+      </c>
+      <c r="B385" t="s">
+        <v>979</v>
+      </c>
+      <c r="C385" t="s">
+        <v>686</v>
+      </c>
+      <c r="D385" t="str">
+        <f>VLOOKUP(C385,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0012</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A386">
+        <v>385</v>
+      </c>
+      <c r="B386" t="s">
+        <v>980</v>
+      </c>
+      <c r="C386" t="s">
+        <v>777</v>
+      </c>
+      <c r="D386" t="str">
+        <f>VLOOKUP(C386,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0105</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A387">
+        <v>386</v>
+      </c>
+      <c r="B387" t="s">
+        <v>980</v>
+      </c>
+      <c r="C387" t="s">
+        <v>512</v>
+      </c>
+      <c r="D387" t="str">
+        <f>VLOOKUP(C387,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0142</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A388">
+        <v>387</v>
+      </c>
+      <c r="B388" t="s">
+        <v>981</v>
+      </c>
+      <c r="C388" t="s">
+        <v>583</v>
+      </c>
+      <c r="D388" t="str">
+        <f>VLOOKUP(C388,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0107</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A389">
+        <v>388</v>
+      </c>
+      <c r="B389" t="s">
+        <v>982</v>
+      </c>
+      <c r="C389" t="s">
+        <v>495</v>
+      </c>
+      <c r="D389" t="str">
+        <f>VLOOKUP(C389,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0078</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A390">
+        <v>389</v>
+      </c>
+      <c r="B390" t="s">
+        <v>982</v>
+      </c>
+      <c r="C390" t="s">
+        <v>756</v>
+      </c>
+      <c r="D390" t="str">
+        <f>VLOOKUP(C390,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0122</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A391">
+        <v>390</v>
+      </c>
+      <c r="B391" t="s">
+        <v>982</v>
+      </c>
+      <c r="C391" t="s">
+        <v>610</v>
+      </c>
+      <c r="D391" t="str">
+        <f>VLOOKUP(C391,'취미 Entiry'!$A$1:$B$158,2)</f>
+        <v>H0062</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2564E2D-D56C-4648-A011-84AE9A3BC0C7}">
+  <dimension ref="A1:B158"/>
+  <sheetViews>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>986</v>
+      </c>
+      <c r="B1" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>753</v>
+      </c>
+      <c r="B2" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>740</v>
+      </c>
+      <c r="B3" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>537</v>
+      </c>
+      <c r="B4" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>722</v>
+      </c>
+      <c r="B5" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>647</v>
+      </c>
+      <c r="B6" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>719</v>
+      </c>
+      <c r="B7" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>736</v>
+      </c>
+      <c r="B8" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>715</v>
+      </c>
+      <c r="B9" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>711</v>
+      </c>
+      <c r="B10" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>750</v>
+      </c>
+      <c r="B11" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>702</v>
+      </c>
+      <c r="B12" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>686</v>
+      </c>
+      <c r="B13" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>735</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>770</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>687</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>726</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>554</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>613</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>602</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>493</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>733</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>704</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>769</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>504</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>529</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>708</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>575</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>738</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>513</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>552</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>693</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>577</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>774</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>737</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>752</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>497</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>532</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>516</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>632</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>707</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>761</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>593</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>727</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>696</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>776</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>773</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>697</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>701</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>576</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>717</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>664</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>582</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>728</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>518</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>587</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>548</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>706</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>745</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>746</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>523</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>567</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>610</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>718</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>749</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>734</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>694</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>699</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>762</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>545</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>585</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>751</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>731</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>682</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>767</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>695</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>725</v>
+      </c>
+      <c r="B77" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>592</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>495</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>688</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>650</v>
+      </c>
+      <c r="B81" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>690</v>
+      </c>
+      <c r="B82" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>684</v>
+      </c>
+      <c r="B83" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>665</v>
+      </c>
+      <c r="B84" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>771</v>
+      </c>
+      <c r="B85" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>540</v>
+      </c>
+      <c r="B86" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>641</v>
+      </c>
+      <c r="B87" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>766</v>
+      </c>
+      <c r="B88" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>759</v>
+      </c>
+      <c r="B89" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>709</v>
+      </c>
+      <c r="B90" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>747</v>
+      </c>
+      <c r="B91" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>505</v>
+      </c>
+      <c r="B92" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>649</v>
+      </c>
+      <c r="B93" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>743</v>
+      </c>
+      <c r="B94" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>689</v>
+      </c>
+      <c r="B95" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>492</v>
+      </c>
+      <c r="B96" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>710</v>
+      </c>
+      <c r="B97" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>631</v>
+      </c>
+      <c r="B98" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>732</v>
+      </c>
+      <c r="B99" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>600</v>
+      </c>
+      <c r="B100" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>673</v>
+      </c>
+      <c r="B101" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>748</v>
+      </c>
+      <c r="B102" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>757</v>
+      </c>
+      <c r="B103" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>700</v>
+      </c>
+      <c r="B104" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>729</v>
+      </c>
+      <c r="B105" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>777</v>
+      </c>
+      <c r="B106" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>724</v>
+      </c>
+      <c r="B107" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>583</v>
+      </c>
+      <c r="B108" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>524</v>
+      </c>
+      <c r="B109" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>768</v>
+      </c>
+      <c r="B110" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>611</v>
+      </c>
+      <c r="B111" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>721</v>
+      </c>
+      <c r="B112" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>692</v>
+      </c>
+      <c r="B113" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>775</v>
+      </c>
+      <c r="B114" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>550</v>
+      </c>
+      <c r="B115" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>496</v>
+      </c>
+      <c r="B116" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>765</v>
+      </c>
+      <c r="B117" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>683</v>
+      </c>
+      <c r="B118" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>507</v>
+      </c>
+      <c r="B119" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>742</v>
+      </c>
+      <c r="B120" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>534</v>
+      </c>
+      <c r="B121" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>680</v>
+      </c>
+      <c r="B122" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>756</v>
+      </c>
+      <c r="B123" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>754</v>
+      </c>
+      <c r="B124" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>619</v>
+      </c>
+      <c r="B125" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>758</v>
+      </c>
+      <c r="B126" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>705</v>
+      </c>
+      <c r="B127" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>730</v>
+      </c>
+      <c r="B128" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>671</v>
+      </c>
+      <c r="B129" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>716</v>
+      </c>
+      <c r="B130" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>669</v>
+      </c>
+      <c r="B131" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>654</v>
+      </c>
+      <c r="B132" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>499</v>
+      </c>
+      <c r="B133" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>494</v>
+      </c>
+      <c r="B134" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>691</v>
+      </c>
+      <c r="B135" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>741</v>
+      </c>
+      <c r="B136" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>772</v>
+      </c>
+      <c r="B137" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>703</v>
+      </c>
+      <c r="B138" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>698</v>
+      </c>
+      <c r="B139" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>760</v>
+      </c>
+      <c r="B140" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>714</v>
+      </c>
+      <c r="B141" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>574</v>
+      </c>
+      <c r="B142" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>512</v>
+      </c>
+      <c r="B143" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>739</v>
+      </c>
+      <c r="B144" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>712</v>
+      </c>
+      <c r="B145" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>569</v>
+      </c>
+      <c r="B146" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>720</v>
+      </c>
+      <c r="B147" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>744</v>
+      </c>
+      <c r="B148" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>498</v>
+      </c>
+      <c r="B149" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>723</v>
+      </c>
+      <c r="B150" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>764</v>
+      </c>
+      <c r="B151" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>713</v>
+      </c>
+      <c r="B152" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>685</v>
+      </c>
+      <c r="B153" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>656</v>
+      </c>
+      <c r="B154" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>763</v>
+      </c>
+      <c r="B155" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>533</v>
+      </c>
+      <c r="B156" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>755</v>
+      </c>
+      <c r="B157" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>681</v>
+      </c>
+      <c r="B158" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>